--- a/CIERRE GASTOS ADMINISTRATIVOS DICIEMBRE 2025.xlsx
+++ b/CIERRE GASTOS ADMINISTRATIVOS DICIEMBRE 2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\PAGOS DICIEMBRE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\PAGOS DICIEMBRE\CIERRE-PAGOS-DICIEMBRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D85C4C-2F6B-4AFC-8422-D0F7B1615291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828E0968-C76C-46AE-8872-70B359D12F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D111AC9-F4B5-4EE1-9519-BE4E4E92E24D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="83">
   <si>
     <t>ID_OBLIGACION</t>
   </si>
@@ -244,6 +244,51 @@
   </si>
   <si>
     <t>CARRANZA CHILMAZA JORGE LUIS</t>
+  </si>
+  <si>
+    <t>TRANSPORTES Y MANIOBRAS S.C.R.L.</t>
+  </si>
+  <si>
+    <t>BUSY BIZ SOLUTIONS S.A.C.</t>
+  </si>
+  <si>
+    <t>FAMIP INDUSTRIAL S.A.C.</t>
+  </si>
+  <si>
+    <t>DORAL SOLUCIONES PERU E.I.R.L.</t>
+  </si>
+  <si>
+    <t>HINOSTROZA GOMEZ JOSE</t>
+  </si>
+  <si>
+    <t>REPRESENTACIONES E &amp; N PALOMINO S.A.C.</t>
+  </si>
+  <si>
+    <t>BONILLA PEREZ JHON ARMANDO</t>
+  </si>
+  <si>
+    <t>MAMANI MOGROVEJO RONDOLFO</t>
+  </si>
+  <si>
+    <t>encargado de pago</t>
+  </si>
+  <si>
+    <t>SIN PAGO</t>
+  </si>
+  <si>
+    <t>TORREJON REYES ROSA MICAELA</t>
+  </si>
+  <si>
+    <t>NARVAEZ YSELA MIRIAM</t>
+  </si>
+  <si>
+    <t>202507|202508|202509</t>
+  </si>
+  <si>
+    <t>RABANAL MISARI ANA MARIA</t>
+  </si>
+  <si>
+    <t>estudiocontable_palomino@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -677,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620BD549-6BD9-4566-86B2-4950053DB95E}">
   <dimension ref="A1:Q136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="L136" sqref="L136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1801,174 +1846,348 @@
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="4"/>
+      <c r="A23" s="3">
+        <v>76474794</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="3">
+        <v>20505874529</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" s="3">
+        <v>20505874529</v>
+      </c>
+      <c r="I23" s="4">
+        <v>46003</v>
+      </c>
       <c r="J23" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67.79661016949153</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+        <v>12.203389830508474</v>
+      </c>
+      <c r="L23" s="8">
+        <v>80</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N23" s="3">
+        <v>202510</v>
+      </c>
       <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
+      <c r="P23" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
+      <c r="A24" s="3">
+        <v>76477124</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="3">
+        <v>20603914296</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="3">
+        <v>20603914296</v>
+      </c>
+      <c r="I24" s="4">
+        <v>46003</v>
+      </c>
       <c r="J24" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>174.05084745762713</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="8"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+        <v>31.329152542372881</v>
+      </c>
+      <c r="L24" s="8">
+        <v>205.38</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N24" s="3">
+        <v>202510</v>
+      </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="4"/>
+      <c r="A25" s="3">
+        <v>76479084</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="3">
+        <v>20612463591</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="3">
+        <v>20612463591</v>
+      </c>
+      <c r="I25" s="4">
+        <v>46002</v>
+      </c>
       <c r="J25" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>107.62711864406781</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="3"/>
+        <v>19.372881355932204</v>
+      </c>
+      <c r="L25" s="8">
+        <v>127</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
+      <c r="O25" s="3">
+        <v>202510</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="4"/>
+      <c r="A26" s="3">
+        <v>76475076</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="3">
+        <v>20521886871</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="3">
+        <v>20521886871</v>
+      </c>
+      <c r="I26" s="4">
+        <v>46003</v>
+      </c>
       <c r="J26" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>147.45762711864407</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="8"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+        <v>26.542372881355931</v>
+      </c>
+      <c r="L26" s="8">
+        <v>174</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N26" s="3">
+        <v>202510</v>
+      </c>
       <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
+      <c r="P26" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="4"/>
+      <c r="A27" s="3">
+        <v>76474019</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="3">
+        <v>41977629</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="3">
+        <v>10419776292</v>
+      </c>
+      <c r="I27" s="4">
+        <v>46003</v>
+      </c>
       <c r="J27" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86.440677966101703</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
+        <v>15.559322033898306</v>
+      </c>
+      <c r="L27" s="8">
+        <v>102</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N27" s="3">
+        <v>202510</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="4"/>
+      <c r="A28" s="3">
+        <v>76477631</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="3">
+        <v>20606210176</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="3">
+        <v>20606210176</v>
+      </c>
+      <c r="I28" s="4">
+        <v>46003</v>
+      </c>
       <c r="J28" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="8"/>
-      <c r="M28" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L28" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
+      <c r="O28" s="3">
+        <v>202510</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="4"/>
+      <c r="B29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="3">
+        <v>20519499780</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="3">
+        <v>20519499780</v>
+      </c>
+      <c r="I29" s="4">
+        <v>46003</v>
+      </c>
       <c r="J29" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>455.64406779661016</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="8"/>
+        <v>82.015932203389823</v>
+      </c>
+      <c r="L29" s="8">
+        <v>537.66</v>
+      </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
@@ -1976,52 +2195,104 @@
       <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="4"/>
+      <c r="A30" s="3">
+        <v>76473991</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="3">
+        <v>40721603</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H30" s="3">
+        <v>10407216038</v>
+      </c>
+      <c r="I30" s="4">
+        <v>46004</v>
+      </c>
       <c r="J30" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78.084745762711876</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="8"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+        <v>14.055254237288137</v>
+      </c>
+      <c r="L30" s="8">
+        <v>92.14</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" s="3">
+        <v>202510</v>
+      </c>
       <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
+      <c r="P30" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="Q30" s="3"/>
     </row>
     <row r="31" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="4"/>
+      <c r="A31" s="3">
+        <v>76474057</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="3">
+        <v>43371623</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="3">
+        <v>10433716235</v>
+      </c>
+      <c r="I31" s="4">
+        <v>46004</v>
+      </c>
       <c r="J31" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="8"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L31" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="3">
+        <v>202510</v>
+      </c>
+      <c r="O31" s="3">
+        <v>202509</v>
+      </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
     </row>
@@ -4628,15 +4899,15 @@
     <row r="136" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J136" s="11">
         <f>SUBTOTAL(9,J2:J135)</f>
-        <v>1831.5084745762711</v>
+        <v>3060.6440677966107</v>
       </c>
       <c r="K136" s="11">
         <f>SUBTOTAL(9,K2:K135)</f>
-        <v>329.67152542372878</v>
+        <v>550.91593220338973</v>
       </c>
       <c r="L136" s="11">
         <f>SUM(L2:L135)</f>
-        <v>2161.1799999999998</v>
+        <v>3611.5599999999995</v>
       </c>
     </row>
   </sheetData>

--- a/CIERRE GASTOS ADMINISTRATIVOS DICIEMBRE 2025.xlsx
+++ b/CIERRE GASTOS ADMINISTRATIVOS DICIEMBRE 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\PAGOS DICIEMBRE\CIERRE-PAGOS-DICIEMBRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828E0968-C76C-46AE-8872-70B359D12F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA3542B-7F3A-4DD8-A945-E1567753F4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D111AC9-F4B5-4EE1-9519-BE4E4E92E24D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="167">
   <si>
     <t>ID_OBLIGACION</t>
   </si>
@@ -261,9 +261,6 @@
     <t>HINOSTROZA GOMEZ JOSE</t>
   </si>
   <si>
-    <t>REPRESENTACIONES E &amp; N PALOMINO S.A.C.</t>
-  </si>
-  <si>
     <t>BONILLA PEREZ JHON ARMANDO</t>
   </si>
   <si>
@@ -273,22 +270,277 @@
     <t>encargado de pago</t>
   </si>
   <si>
-    <t>SIN PAGO</t>
-  </si>
-  <si>
-    <t>TORREJON REYES ROSA MICAELA</t>
-  </si>
-  <si>
     <t>NARVAEZ YSELA MIRIAM</t>
   </si>
   <si>
-    <t>202507|202508|202509</t>
-  </si>
-  <si>
     <t>RABANAL MISARI ANA MARIA</t>
   </si>
   <si>
-    <t>estudiocontable_palomino@hotmail.com</t>
+    <t>CITEC SERVICES PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>FLORES CRUZ EQUIPAMIENTO MEDICO HOSPITALARIO S.A.C. - FC EQUIPAMIENTO MEDICO S.A.C.</t>
+  </si>
+  <si>
+    <t>DEUDA REAL TOTAL</t>
+  </si>
+  <si>
+    <t>PRIMA_AFP_DEUDA_REAL_TOTAL</t>
+  </si>
+  <si>
+    <t>CLUB DE AREQUIPA</t>
+  </si>
+  <si>
+    <t>CONSTRUCTORA CUSA S.A.C. CONTRATISTAS GE NERALES</t>
+  </si>
+  <si>
+    <t>SOLUTION SERVICIOS GENERALES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>GINOR EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITA</t>
+  </si>
+  <si>
+    <t>JC &amp; R INGENIERIA Y CONSTRUCCION S.A.C.</t>
+  </si>
+  <si>
+    <t>ASOCIACION DE CAPITANES DE NAVIO CORONELES DE LAS FUERZAS ARMADAS Y POLICIA NACIONAL EN SITUACION DE</t>
+  </si>
+  <si>
+    <t>CARMEN NIÑO</t>
+  </si>
+  <si>
+    <t>PRESUNTA</t>
+  </si>
+  <si>
+    <t>PRIMA_AFP_PRESUNTA</t>
+  </si>
+  <si>
+    <t>CONSTRUCTORA ESAFIN S.A.C.</t>
+  </si>
+  <si>
+    <t>SERVICIOS MOBILES INTERNACIONALES SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>GRUPO SAIM E.I.R.L</t>
+  </si>
+  <si>
+    <t>P &amp; J DISTRIBUIDORA S.A.C.</t>
+  </si>
+  <si>
+    <t>PROVEEDORES Y SERVICIOS INDUSTRIALES PSI E.I.R.L.</t>
+  </si>
+  <si>
+    <t>REYES CANALES ALAN CARLOS</t>
+  </si>
+  <si>
+    <t>COSMOPOLITAN PERU S.A.C</t>
+  </si>
+  <si>
+    <t>TRANSPORTES YTUZA EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITADA - TRANSPORTES YTUZA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>ELECTROMECANICA JN S.A.C.</t>
+  </si>
+  <si>
+    <t>REALBUR S.R.L.</t>
+  </si>
+  <si>
+    <t>INCUBADORA SANTA SOFIA SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>AC PROLOGISTIC DEL PERU SAC</t>
+  </si>
+  <si>
+    <t>EFINERGY CONSULTORA DEL PERU E.I.R.L. - EFINERGY CONSULTORA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>GRUPO NEWTON PARAISO S.A.C.</t>
+  </si>
+  <si>
+    <t>VIDALAB CORPORATION S.A.C.</t>
+  </si>
+  <si>
+    <t>ADG ARQUITECTURA Y CONSTRUCCION S.A.C.</t>
+  </si>
+  <si>
+    <t>GRUPO H Y S S.R.L.</t>
+  </si>
+  <si>
+    <t>H TORRES CONSULTORES &amp; CONSTRUCTORES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>ELECTRONICA INDUSTRIAL 2H E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CONTRATO PUENTE GRANADA</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDORA DE PERNOS DEL NORTE SRLTDA</t>
+  </si>
+  <si>
+    <t>F001-00035349</t>
+  </si>
+  <si>
+    <t>F001-00035376</t>
+  </si>
+  <si>
+    <t>F001-00035362</t>
+  </si>
+  <si>
+    <t>F001-00035351</t>
+  </si>
+  <si>
+    <t>F001-00035365</t>
+  </si>
+  <si>
+    <t>F001-00035355</t>
+  </si>
+  <si>
+    <t>F001-00035390</t>
+  </si>
+  <si>
+    <t>F001-00035403</t>
+  </si>
+  <si>
+    <t>F001-00035429</t>
+  </si>
+  <si>
+    <t>F001-00035416</t>
+  </si>
+  <si>
+    <t>F001-00035418</t>
+  </si>
+  <si>
+    <t>F001-00035419</t>
+  </si>
+  <si>
+    <t>F001-00035414</t>
+  </si>
+  <si>
+    <t>F001-00035435</t>
+  </si>
+  <si>
+    <t>F001-00035449</t>
+  </si>
+  <si>
+    <t>F001-00035461</t>
+  </si>
+  <si>
+    <t>F001-00035475</t>
+  </si>
+  <si>
+    <t>F001-00035516</t>
+  </si>
+  <si>
+    <t>F001-00035488</t>
+  </si>
+  <si>
+    <t>F001-00035566</t>
+  </si>
+  <si>
+    <t>F001-00035640</t>
+  </si>
+  <si>
+    <t>F001-00035561</t>
+  </si>
+  <si>
+    <t>F001-00035567</t>
+  </si>
+  <si>
+    <t>202507|202508|202509|202510</t>
+  </si>
+  <si>
+    <t>F001-00035563</t>
+  </si>
+  <si>
+    <t>201401|201402|201403|201405|201406|201407|201408|201409|201411|201412|201501|201502|201503|201505</t>
+  </si>
+  <si>
+    <t>201101|201102|201103|201105|201106|201107|201108|201109|201111|201112|201301|201302|201303|201305|201306|201307|201308|201309|201311|201312</t>
+  </si>
+  <si>
+    <t>F001-00035653</t>
+  </si>
+  <si>
+    <t>202509|202510</t>
+  </si>
+  <si>
+    <t>F001-00035655</t>
+  </si>
+  <si>
+    <t>DOTTY GARCIA</t>
+  </si>
+  <si>
+    <t>F001-00035656</t>
+  </si>
+  <si>
+    <t>F001-00035661</t>
+  </si>
+  <si>
+    <t>F001-00035676</t>
+  </si>
+  <si>
+    <t>F001-00035677</t>
+  </si>
+  <si>
+    <t>ORIANA</t>
+  </si>
+  <si>
+    <t>F001-00035681</t>
+  </si>
+  <si>
+    <t>200709|200711|200712|200801|200802|200803|200805|200806|200807|200808|200809|200811|200812|200901|200902|200903|200905|200906|200907|200908|200909|200</t>
+  </si>
+  <si>
+    <t>201107|201109|201110|201111|201112|201201|201203|201204|201205|201206|201208|201210</t>
+  </si>
+  <si>
+    <t>F001-00035685</t>
+  </si>
+  <si>
+    <t>VICTOR GARRIDO</t>
+  </si>
+  <si>
+    <t>RUTH</t>
+  </si>
+  <si>
+    <t>ALDAIR</t>
+  </si>
+  <si>
+    <t>OSCAR GUEVARA</t>
+  </si>
+  <si>
+    <t>KATERIN</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>estudiocontable_campos@hotmail.com</t>
+  </si>
+  <si>
+    <t>YRMA</t>
+  </si>
+  <si>
+    <t>PONCE ROJAS JORDY JULER</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>VERONICA</t>
+  </si>
+  <si>
+    <t>JEAN PIERRE ARELLANO</t>
+  </si>
+  <si>
+    <t>HILDA VILLAVICENCIO</t>
+  </si>
+  <si>
+    <t>SALON NOVOA ROSA JHERALIT</t>
+  </si>
+  <si>
+    <t>CARLOS PRADO</t>
   </si>
 </sst>
 </file>
@@ -722,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620BD549-6BD9-4566-86B2-4950053DB95E}">
   <dimension ref="A1:Q136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:Q59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -835,7 +1087,9 @@
       <c r="P2" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" s="3"/>
+      <c r="Q2" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="3" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -939,7 +1193,9 @@
       <c r="P4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" s="3"/>
+      <c r="Q4" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="5" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -990,7 +1246,9 @@
       <c r="P5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="6" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
@@ -1039,7 +1297,9 @@
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="7" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1088,7 +1348,9 @@
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="8" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -1137,7 +1399,9 @@
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="9" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -1186,7 +1450,9 @@
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="Q9" s="3" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="10" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -1235,7 +1501,9 @@
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="3" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="11" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1284,7 +1552,9 @@
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="3" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="12" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1335,7 +1605,9 @@
       <c r="P12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Q12" s="3"/>
+      <c r="Q12" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="13" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1386,7 +1658,9 @@
       <c r="P13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Q13" s="3"/>
+      <c r="Q13" s="3" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="14" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
@@ -1435,7 +1709,9 @@
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="Q14" s="3" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="15" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
@@ -1486,7 +1762,9 @@
       <c r="P15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Q15" s="3"/>
+      <c r="Q15" s="3" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="16" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
@@ -1535,7 +1813,9 @@
       </c>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="Q16" s="3" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="17" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
@@ -1586,7 +1866,9 @@
       <c r="P17" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="Q17" s="3"/>
+      <c r="Q17" s="3" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="18" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -1637,7 +1919,9 @@
       <c r="P18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="Q18" s="3"/>
+      <c r="Q18" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="19" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -1688,7 +1972,9 @@
       <c r="P19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="Q19" s="3"/>
+      <c r="Q19" s="3" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="20" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -1794,7 +2080,9 @@
       <c r="P21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="Q21" s="3"/>
+      <c r="Q21" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="22" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -1843,7 +2131,9 @@
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="Q22" s="3" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="23" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
@@ -1892,9 +2182,11 @@
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q23" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="24" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
@@ -1943,7 +2235,9 @@
       </c>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="Q24" s="3" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="25" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
@@ -1985,16 +2279,16 @@
         <v>127</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3">
+        <v>19</v>
+      </c>
+      <c r="N25" s="3">
         <v>202510</v>
       </c>
-      <c r="P25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="26" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -2043,9 +2337,11 @@
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q26" s="3"/>
+        <v>76</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="27" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -2087,22 +2383,22 @@
         <v>102</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N27" s="3">
-        <v>202510</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O27" s="3"/>
       <c r="P27" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q27" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="28" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>76477631</v>
+        <v>76514180</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>24</v>
@@ -2111,95 +2407,103 @@
         <v>53</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F28" s="3">
-        <v>20606210176</v>
+        <v>20519499780</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="H28" s="3">
-        <v>20606210176</v>
+        <v>20519499780</v>
       </c>
       <c r="I28" s="4">
         <v>46003</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="0"/>
-        <v>56.016949152542374</v>
+        <v>455.64406779661016</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="1"/>
-        <v>10.083050847457628</v>
+        <v>82.015932203389823</v>
       </c>
       <c r="L28" s="8">
-        <v>66.099999999999994</v>
+        <v>537.66</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3">
-        <v>202510</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>82</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3">
+        <v>76473991</v>
+      </c>
       <c r="B29" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F29" s="3">
-        <v>20519499780</v>
+        <v>40721603</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="H29" s="3">
-        <v>20519499780</v>
+        <v>10407216038</v>
       </c>
       <c r="I29" s="4">
-        <v>46003</v>
+        <v>46004</v>
       </c>
       <c r="J29" s="7">
         <f t="shared" si="0"/>
-        <v>455.64406779661016</v>
+        <v>78.084745762711876</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="1"/>
-        <v>82.015932203389823</v>
+        <v>14.055254237288137</v>
       </c>
       <c r="L29" s="8">
-        <v>537.66</v>
-      </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+        <v>92.14</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N29" s="3">
+        <v>202510</v>
+      </c>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
+      <c r="Q29" s="3" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="30" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>76473991</v>
+        <v>76474057</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>53</v>
@@ -2211,46 +2515,46 @@
         <v>17</v>
       </c>
       <c r="F30" s="3">
-        <v>40721603</v>
+        <v>43371623</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>74</v>
       </c>
       <c r="H30" s="3">
-        <v>10407216038</v>
+        <v>10433716235</v>
       </c>
       <c r="I30" s="4">
         <v>46004</v>
       </c>
       <c r="J30" s="7">
         <f t="shared" si="0"/>
-        <v>78.084745762711876</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="1"/>
-        <v>14.055254237288137</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L30" s="8">
-        <v>92.14</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N30" s="3">
-        <v>202510</v>
+      <c r="N30" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="O30" s="3"/>
-      <c r="P30" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="31" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>76474057</v>
+        <v>76476539</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>53</v>
@@ -2262,738 +2566,1460 @@
         <v>17</v>
       </c>
       <c r="F31" s="3">
-        <v>43371623</v>
+        <v>20601897823</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H31" s="3">
-        <v>10433716235</v>
+        <v>20601897823</v>
       </c>
       <c r="I31" s="4">
-        <v>46004</v>
+        <v>46005</v>
       </c>
       <c r="J31" s="7">
         <f t="shared" si="0"/>
-        <v>56.016949152542374</v>
+        <v>132.80508474576271</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="1"/>
-        <v>10.083050847457628</v>
+        <v>23.904915254237288</v>
       </c>
       <c r="L31" s="8">
-        <v>66.099999999999994</v>
+        <v>156.71</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N31" s="3">
         <v>202510</v>
       </c>
-      <c r="O31" s="3">
-        <v>202509</v>
-      </c>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="32" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="4"/>
+      <c r="A32" s="3">
+        <v>76476023</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="3">
+        <v>20600140451</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="3">
+        <v>20600140451</v>
+      </c>
+      <c r="I32" s="4">
+        <v>46003</v>
+      </c>
       <c r="J32" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86.211864406779668</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="8"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+        <v>15.51813559322034</v>
+      </c>
+      <c r="L32" s="8">
+        <v>101.73</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" s="3">
+        <v>202510</v>
+      </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
+      <c r="Q32" s="3" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="33" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="4"/>
+      <c r="A33" s="3">
+        <v>76487964</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="3">
+        <v>20170417543</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H33" s="3">
+        <v>20170417543</v>
+      </c>
+      <c r="I33" s="4">
+        <v>46006</v>
+      </c>
       <c r="J33" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>51.779661016949156</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="8"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+        <v>9.3203389830508474</v>
+      </c>
+      <c r="L33" s="8">
+        <v>61.1</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N33" s="3">
+        <v>199807</v>
+      </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
+      <c r="Q33" s="3" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="34" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="4"/>
+      <c r="A34" s="3">
+        <v>76474266</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="3">
+        <v>20302061425</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="3">
+        <v>20302061425</v>
+      </c>
+      <c r="I34" s="4">
+        <v>46006</v>
+      </c>
       <c r="J34" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>162.5</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="8"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+        <v>29.25</v>
+      </c>
+      <c r="L34" s="8">
+        <v>191.75</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N34" s="3">
+        <v>202510</v>
+      </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
+      <c r="Q34" s="3" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="35" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="4"/>
+      <c r="A35" s="3">
+        <v>76477210</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="3">
+        <v>20604322678</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="3">
+        <v>20604322678</v>
+      </c>
+      <c r="I35" s="4">
+        <v>46006</v>
+      </c>
       <c r="J35" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="8"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L35" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N35" s="3">
+        <v>202510</v>
+      </c>
       <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
+      <c r="P35" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="36" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="4"/>
+      <c r="A36" s="3">
+        <v>76513681</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="3">
+        <v>20509470848</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" s="3">
+        <v>20509470848</v>
+      </c>
+      <c r="I36" s="4">
+        <v>46006</v>
+      </c>
       <c r="J36" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>815.0593220338983</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="8"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
+        <v>146.71067796610168</v>
+      </c>
+      <c r="L36" s="8">
+        <v>961.77</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
     </row>
     <row r="37" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="4"/>
+      <c r="A37" s="3">
+        <v>76477683</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="3">
+        <v>20606399279</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H37" s="3">
+        <v>20606399279</v>
+      </c>
+      <c r="I37" s="4">
+        <v>46006</v>
+      </c>
       <c r="J37" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>157.54237288135596</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="8"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
+        <v>28.357627118644071</v>
+      </c>
+      <c r="L37" s="8">
+        <v>185.9</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37" s="3">
+        <v>202510</v>
+      </c>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
+      <c r="Q37" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="38" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="4"/>
+      <c r="A38" s="3">
+        <v>76474264</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="3">
+        <v>20298537461</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" s="3">
+        <v>20298537461</v>
+      </c>
+      <c r="I38" s="4">
+        <v>46006</v>
+      </c>
       <c r="J38" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86.440677966101703</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="8"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
+        <v>15.559322033898306</v>
+      </c>
+      <c r="L38" s="8">
+        <v>102</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N38" s="3">
+        <v>202510</v>
+      </c>
       <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
+      <c r="P38" s="3" t="s">
+        <v>152</v>
+      </c>
       <c r="Q38" s="3"/>
     </row>
     <row r="39" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="4"/>
+      <c r="A39" s="3">
+        <v>76498557</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="3">
+        <v>20514534251</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="3">
+        <v>20514534251</v>
+      </c>
+      <c r="I39" s="4">
+        <v>46007</v>
+      </c>
       <c r="J39" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="8"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L39" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N39" s="3">
+        <v>202510</v>
+      </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
     </row>
     <row r="40" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="4"/>
+      <c r="A40" s="3">
+        <v>76474877</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="3">
+        <v>20511763089</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H40" s="3">
+        <v>20511763089</v>
+      </c>
+      <c r="I40" s="4">
+        <v>46007</v>
+      </c>
       <c r="J40" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>189.11864406779662</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L40" s="8"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
+        <v>34.041355932203388</v>
+      </c>
+      <c r="L40" s="8">
+        <v>223.16</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N40" s="3">
+        <v>202510</v>
+      </c>
       <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
+      <c r="P40" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="Q40" s="3"/>
     </row>
     <row r="41" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="4"/>
+      <c r="A41" s="3">
+        <v>76478040</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="3">
+        <v>20608123696</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" s="3">
+        <v>20608123696</v>
+      </c>
+      <c r="I41" s="4">
+        <v>46008</v>
+      </c>
       <c r="J41" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L41" s="8"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L41" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N41" s="3">
+        <v>202510</v>
+      </c>
       <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
+      <c r="P41" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="Q41" s="3"/>
     </row>
     <row r="42" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="4"/>
+      <c r="A42" s="3">
+        <v>76476898</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" s="3">
+        <v>20603066112</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="3">
+        <v>20603066112</v>
+      </c>
+      <c r="I42" s="4">
+        <v>46008</v>
+      </c>
       <c r="J42" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90.677966101694921</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L42" s="8"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
+        <v>16.322033898305087</v>
+      </c>
+      <c r="L42" s="8">
+        <v>107</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N42" s="3">
+        <v>202510</v>
+      </c>
       <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
+      <c r="P42" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="Q42" s="3"/>
     </row>
     <row r="43" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="4"/>
+      <c r="A43" s="3">
+        <v>76477208</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="3">
+        <v>20604312583</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H43" s="3">
+        <v>20604312583</v>
+      </c>
+      <c r="I43" s="4">
+        <v>46008</v>
+      </c>
       <c r="J43" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62.711864406779661</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L43" s="8"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
+        <v>11.288135593220339</v>
+      </c>
+      <c r="L43" s="8">
+        <v>74</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N43" s="3">
+        <v>202510</v>
+      </c>
       <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
+      <c r="P43" s="3" t="s">
+        <v>155</v>
+      </c>
       <c r="Q43" s="3"/>
     </row>
     <row r="44" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="4"/>
+      <c r="A44" s="3">
+        <v>76474010</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="3">
+        <v>41673301</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H44" s="3">
+        <v>10416733011</v>
+      </c>
+      <c r="I44" s="4">
+        <v>46008</v>
+      </c>
       <c r="J44" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79.66101694915254</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L44" s="8"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
+        <v>14.338983050847457</v>
+      </c>
+      <c r="L44" s="8">
+        <v>94</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
+      <c r="P44" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="Q44" s="3"/>
     </row>
     <row r="45" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="4"/>
+      <c r="A45" s="3">
+        <v>76475605</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="3">
+        <v>20551438113</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H45" s="3">
+        <v>20551438113</v>
+      </c>
+      <c r="I45" s="4">
+        <v>46008</v>
+      </c>
       <c r="J45" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>117.79661016949153</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L45" s="8"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
+        <v>21.203389830508474</v>
+      </c>
+      <c r="L45" s="8">
+        <v>139</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
+      <c r="P45" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="4"/>
+      <c r="A46" s="3">
+        <v>76476513</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="3">
+        <v>20601813832</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H46" s="3">
+        <v>20601813832</v>
+      </c>
+      <c r="I46" s="4">
+        <v>46002</v>
+      </c>
       <c r="J46" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>104.48305084745763</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L46" s="8"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
+        <v>18.806949152542373</v>
+      </c>
+      <c r="L46" s="8">
+        <v>123.29</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N46" s="3">
+        <v>202510</v>
+      </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
     </row>
     <row r="47" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="4"/>
+      <c r="A47" s="3">
+        <v>76475776</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="3">
+        <v>20556935280</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H47" s="3">
+        <v>20556935280</v>
+      </c>
+      <c r="I47" s="4">
+        <v>46008</v>
+      </c>
       <c r="J47" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>111.56779661016951</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L47" s="8"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
+        <v>20.082203389830511</v>
+      </c>
+      <c r="L47" s="8">
+        <v>131.65</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N47" s="3">
+        <v>202510</v>
+      </c>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="4"/>
+      <c r="A48" s="3">
+        <v>76476825</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="3">
+        <v>20602849636</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>20602849636</v>
+      </c>
+      <c r="I48" s="4">
+        <v>46008</v>
+      </c>
       <c r="J48" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68.457627118644069</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="8"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
+        <v>12.322372881355932</v>
+      </c>
+      <c r="L48" s="8">
+        <v>80.78</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
+      <c r="P48" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="Q48" s="3"/>
     </row>
     <row r="49" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="4"/>
+      <c r="A49" s="3">
+        <v>76477775</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F49" s="3">
+        <v>20606753820</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H49" s="3">
+        <v>20606753820</v>
+      </c>
+      <c r="I49" s="4">
+        <v>46008</v>
+      </c>
       <c r="J49" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60.406779661016955</v>
       </c>
       <c r="K49" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="8"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
+        <v>10.873220338983051</v>
+      </c>
+      <c r="L49" s="8">
+        <v>71.28</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N49" s="3">
+        <v>202510</v>
+      </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
     </row>
     <row r="50" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="4"/>
+      <c r="A50" s="3">
+        <v>76474698</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" s="3">
+        <v>20492994945</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H50" s="3">
+        <v>20492994945</v>
+      </c>
+      <c r="I50" s="4">
+        <v>46008</v>
+      </c>
       <c r="J50" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>281.35593220338984</v>
       </c>
       <c r="K50" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="8"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
+        <v>50.644067796610166</v>
+      </c>
+      <c r="L50" s="8">
+        <v>332</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" s="3">
+        <v>202510</v>
+      </c>
+      <c r="O50" s="3">
+        <v>202510</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="Q50" s="3"/>
     </row>
     <row r="51" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="4"/>
+      <c r="A51" s="3">
+        <v>76477704</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="3">
+        <v>20606518235</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H51" s="3">
+        <v>20606518235</v>
+      </c>
+      <c r="I51" s="4">
+        <v>46009</v>
+      </c>
       <c r="J51" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60.16949152542373</v>
       </c>
       <c r="K51" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L51" s="8"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
+        <v>10.830508474576272</v>
+      </c>
+      <c r="L51" s="8">
+        <v>71</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N51" s="3">
+        <v>202510</v>
+      </c>
       <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
+      <c r="P51" s="3" t="s">
+        <v>160</v>
+      </c>
       <c r="Q51" s="3"/>
     </row>
     <row r="52" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="4"/>
+      <c r="A52" s="3">
+        <v>76478655</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="3">
+        <v>20610621351</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H52" s="3">
+        <v>20610621351</v>
+      </c>
+      <c r="I52" s="4">
+        <v>46009</v>
+      </c>
       <c r="J52" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78.813559322033896</v>
       </c>
       <c r="K52" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="8"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
+        <v>14.1864406779661</v>
+      </c>
+      <c r="L52" s="8">
+        <v>93</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
+      <c r="P52" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="Q52" s="3"/>
     </row>
     <row r="53" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="4"/>
+      <c r="A53" s="3">
+        <v>76477598</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="3">
+        <v>20606102187</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H53" s="3">
+        <v>20606102187</v>
+      </c>
+      <c r="I53" s="4">
+        <v>46008</v>
+      </c>
       <c r="J53" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>136.4406779661017</v>
       </c>
       <c r="K53" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="8"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
+        <v>24.559322033898304</v>
+      </c>
+      <c r="L53" s="8">
+        <v>161</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N53" s="3">
+        <v>202510</v>
+      </c>
       <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
+      <c r="P53" s="3" t="s">
+        <v>162</v>
+      </c>
       <c r="Q53" s="3"/>
     </row>
     <row r="54" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="4"/>
+      <c r="A54" s="3">
+        <v>76475622</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="3">
+        <v>20551916970</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H54" s="3">
+        <v>20551916970</v>
+      </c>
+      <c r="I54" s="4">
+        <v>46009</v>
+      </c>
       <c r="J54" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K54" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="8"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L54" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N54" s="3">
+        <v>202510</v>
+      </c>
       <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
+      <c r="P54" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="Q54" s="3"/>
     </row>
     <row r="55" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="4"/>
+      <c r="A55" s="3">
+        <v>76474540</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="3">
+        <v>20478157976</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H55" s="3">
+        <v>20478157976</v>
+      </c>
+      <c r="I55" s="4">
+        <v>46009</v>
+      </c>
       <c r="J55" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K55" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="8"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L55" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N55" s="3">
+        <v>202510</v>
+      </c>
       <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
+      <c r="P55" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="4"/>
+      <c r="A56" s="3">
+        <v>76475394</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="3">
+        <v>20542353059</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H56" s="3">
+        <v>20542353059</v>
+      </c>
+      <c r="I56" s="4">
+        <v>46009</v>
+      </c>
       <c r="J56" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K56" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L56" s="8"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L56" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N56" s="3">
+        <v>202510</v>
+      </c>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
     </row>
     <row r="57" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="4"/>
+      <c r="A57" s="3">
+        <v>76475653</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="3">
+        <v>20552638337</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H57" s="3">
+        <v>20552638337</v>
+      </c>
+      <c r="I57" s="4">
+        <v>46009</v>
+      </c>
       <c r="J57" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K57" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L57" s="8"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L57" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
     </row>
     <row r="58" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="4"/>
+      <c r="A58" s="3">
+        <v>76479527</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="3">
+        <v>20614566842</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H58" s="3">
+        <v>20614566842</v>
+      </c>
+      <c r="I58" s="4">
+        <v>46009</v>
+      </c>
       <c r="J58" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>111.86440677966102</v>
       </c>
       <c r="K58" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L58" s="8"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
+        <v>20.135593220338983</v>
+      </c>
+      <c r="L58" s="8">
+        <v>132</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N58" s="3">
+        <v>202510</v>
+      </c>
       <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
+      <c r="P58" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="Q58" s="3"/>
     </row>
     <row r="59" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="4"/>
+      <c r="A59" s="3">
+        <v>76474203</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="3">
+        <v>20113539675</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H59" s="3">
+        <v>20113539675</v>
+      </c>
+      <c r="I59" s="4">
+        <v>46010</v>
+      </c>
       <c r="J59" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K59" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L59" s="8"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L59" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N59" s="3">
+        <v>202510</v>
+      </c>
       <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
+      <c r="P59" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="Q59" s="3"/>
     </row>
     <row r="60" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -4899,15 +5925,15 @@
     <row r="136" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J136" s="11">
         <f>SUBTOTAL(9,J2:J135)</f>
-        <v>3060.6440677966107</v>
+        <v>6498.6271186440672</v>
       </c>
       <c r="K136" s="11">
         <f>SUBTOTAL(9,K2:K135)</f>
-        <v>550.91593220338973</v>
+        <v>1169.7528813559318</v>
       </c>
       <c r="L136" s="11">
         <f>SUM(L2:L135)</f>
-        <v>3611.5599999999995</v>
+        <v>7668.38</v>
       </c>
     </row>
   </sheetData>

--- a/CIERRE GASTOS ADMINISTRATIVOS DICIEMBRE 2025.xlsx
+++ b/CIERRE GASTOS ADMINISTRATIVOS DICIEMBRE 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\PAGOS DICIEMBRE\CIERRE-PAGOS-DICIEMBRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA3542B-7F3A-4DD8-A945-E1567753F4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7033E7CD-7DF7-4D13-98AB-82D293B95F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D111AC9-F4B5-4EE1-9519-BE4E4E92E24D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$134</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="207">
   <si>
     <t>ID_OBLIGACION</t>
   </si>
@@ -541,6 +541,126 @@
   </si>
   <si>
     <t>CARLOS PRADO</t>
+  </si>
+  <si>
+    <t>REPRESENTACIONES E &amp; N PALOMINO S.A.C.</t>
+  </si>
+  <si>
+    <t>SARAVIA OLIVER MARTHA ESTHER ANGELA MILAGROS</t>
+  </si>
+  <si>
+    <t>GRUPO BIOTECH S.A.C.</t>
+  </si>
+  <si>
+    <t>MUNAY &amp;FAM SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>MEDICAL GROUP LRG E.I.R.L.</t>
+  </si>
+  <si>
+    <t>HOLDING E INVERSIONES CHYP E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CORREA YAJAHUANCA OTILIO</t>
+  </si>
+  <si>
+    <t>MANUFACTURAS YANVAR S.A.C.</t>
+  </si>
+  <si>
+    <t>TRANSPORTES SANTO DOMINGO ICA SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>ASOCIACION CULTURAL ARTES UNIDAS ACAU</t>
+  </si>
+  <si>
+    <t>ESPARTA CONSTRUCTORES S.A.</t>
+  </si>
+  <si>
+    <t>SOCIEDAD MINERA EL TRIUNFO S.A.</t>
+  </si>
+  <si>
+    <t>RONESK S.A.C.</t>
+  </si>
+  <si>
+    <t>SIMONS &amp; DE NORIEGA ABOGADOS SOCIEDAD CIVIL DE RESPONSABILIDAD LIMITADA-SIMONS &amp; DE NORIEGA S. CIVIL</t>
+  </si>
+  <si>
+    <t>GRUPO INMOBILIARIO PRO PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>ALKHA &amp; CIA S.A.C.</t>
+  </si>
+  <si>
+    <t>ARIANA (EP)</t>
+  </si>
+  <si>
+    <t>F001-00035642</t>
+  </si>
+  <si>
+    <t>F001-00035717</t>
+  </si>
+  <si>
+    <t>F001-00035732</t>
+  </si>
+  <si>
+    <t>F001-00035737</t>
+  </si>
+  <si>
+    <t>F001-00035766</t>
+  </si>
+  <si>
+    <t>F001-00035772</t>
+  </si>
+  <si>
+    <t>F001-00035773</t>
+  </si>
+  <si>
+    <t>F001-00035774</t>
+  </si>
+  <si>
+    <t>F001-00035777</t>
+  </si>
+  <si>
+    <t>F001-00035778</t>
+  </si>
+  <si>
+    <t>F001-00035784</t>
+  </si>
+  <si>
+    <t>F001-00035793</t>
+  </si>
+  <si>
+    <t>F001-00035794</t>
+  </si>
+  <si>
+    <t>SIN PAGO</t>
+  </si>
+  <si>
+    <t>202507|202508|202509</t>
+  </si>
+  <si>
+    <t>SARAVIA OLIVER MARTHA ESTHER</t>
+  </si>
+  <si>
+    <t>202503|202504|202505|202506</t>
+  </si>
+  <si>
+    <t>202508|202509|202510</t>
+  </si>
+  <si>
+    <t>WILLIAM RUIZ</t>
+  </si>
+  <si>
+    <t>manufacturasyanvar@gmail.com</t>
+  </si>
+  <si>
+    <t>SANDRA BERNASCONI</t>
+  </si>
+  <si>
+    <t>EDITH GUTIERREZ</t>
+  </si>
+  <si>
+    <t>CONTRERAS ARIZAPANA ALEJANDRO ALLEN</t>
   </si>
 </sst>
 </file>
@@ -972,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620BD549-6BD9-4566-86B2-4950053DB95E}">
-  <dimension ref="A1:Q136"/>
+  <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:Q59"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1120,11 +1240,11 @@
         <v>45993</v>
       </c>
       <c r="J3" s="7">
-        <f t="shared" ref="J3:J66" si="0">+L3/1.18</f>
+        <f t="shared" ref="J3:J65" si="0">+L3/1.18</f>
         <v>122.03389830508475</v>
       </c>
       <c r="K3" s="7">
-        <f t="shared" ref="K3:K66" si="1">J3*0.18</f>
+        <f t="shared" ref="K3:K65" si="1">J3*0.18</f>
         <v>21.966101694915253</v>
       </c>
       <c r="L3" s="8">
@@ -2398,7 +2518,7 @@
     </row>
     <row r="28" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>76514180</v>
+        <v>76477631</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>24</v>
@@ -2407,103 +2527,105 @@
         <v>53</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F28" s="3">
-        <v>20519499780</v>
+        <v>20606210176</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="H28" s="3">
-        <v>20519499780</v>
+        <v>20606210176</v>
       </c>
       <c r="I28" s="4">
         <v>46003</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" si="0"/>
-        <v>455.64406779661016</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" si="1"/>
-        <v>82.015932203389823</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L28" s="8">
-        <v>537.66</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="O28" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="N28" s="3">
+        <v>202510</v>
+      </c>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="29" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>76473991</v>
+        <v>76514180</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F29" s="3">
-        <v>40721603</v>
+        <v>20519499780</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="H29" s="3">
-        <v>10407216038</v>
+        <v>20519499780</v>
       </c>
       <c r="I29" s="4">
-        <v>46004</v>
+        <v>46003</v>
       </c>
       <c r="J29" s="7">
         <f t="shared" si="0"/>
-        <v>78.084745762711876</v>
+        <v>455.64406779661016</v>
       </c>
       <c r="K29" s="7">
         <f t="shared" si="1"/>
-        <v>14.055254237288137</v>
+        <v>82.015932203389823</v>
       </c>
       <c r="L29" s="8">
-        <v>92.14</v>
+        <v>537.66</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N29" s="3">
-        <v>202510</v>
-      </c>
-      <c r="O29" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="P29" s="3"/>
-      <c r="Q29" s="3" t="s">
-        <v>139</v>
-      </c>
+      <c r="Q29" s="3"/>
     </row>
     <row r="30" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>76474057</v>
+        <v>76473991</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>53</v>
@@ -2515,46 +2637,46 @@
         <v>17</v>
       </c>
       <c r="F30" s="3">
-        <v>43371623</v>
+        <v>40721603</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H30" s="3">
-        <v>10433716235</v>
+        <v>10407216038</v>
       </c>
       <c r="I30" s="4">
         <v>46004</v>
       </c>
       <c r="J30" s="7">
         <f t="shared" si="0"/>
-        <v>56.016949152542374</v>
+        <v>78.084745762711876</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" si="1"/>
-        <v>10.083050847457628</v>
+        <v>14.055254237288137</v>
       </c>
       <c r="L30" s="8">
-        <v>66.099999999999994</v>
+        <v>92.14</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N30" s="3" t="s">
-        <v>140</v>
+      <c r="N30" s="3">
+        <v>202510</v>
       </c>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>76476539</v>
+        <v>76474057</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>53</v>
@@ -2566,48 +2688,46 @@
         <v>17</v>
       </c>
       <c r="F31" s="3">
-        <v>20601897823</v>
+        <v>43371623</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H31" s="3">
-        <v>20601897823</v>
+        <v>10433716235</v>
       </c>
       <c r="I31" s="4">
-        <v>46005</v>
+        <v>46004</v>
       </c>
       <c r="J31" s="7">
         <f t="shared" si="0"/>
-        <v>132.80508474576271</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" si="1"/>
-        <v>23.904915254237288</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L31" s="8">
-        <v>156.71</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N31" s="3">
-        <v>202510</v>
+      <c r="N31" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="O31" s="3"/>
-      <c r="P31" s="3" t="s">
-        <v>142</v>
-      </c>
+      <c r="P31" s="3"/>
       <c r="Q31" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>76476023</v>
+        <v>76476539</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>53</v>
@@ -2619,27 +2739,27 @@
         <v>17</v>
       </c>
       <c r="F32" s="3">
-        <v>20600140451</v>
+        <v>20601897823</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H32" s="3">
-        <v>20600140451</v>
+        <v>20601897823</v>
       </c>
       <c r="I32" s="4">
-        <v>46003</v>
+        <v>46005</v>
       </c>
       <c r="J32" s="7">
         <f t="shared" si="0"/>
-        <v>86.211864406779668</v>
+        <v>132.80508474576271</v>
       </c>
       <c r="K32" s="7">
         <f t="shared" si="1"/>
-        <v>15.51813559322034</v>
+        <v>23.904915254237288</v>
       </c>
       <c r="L32" s="8">
-        <v>101.73</v>
+        <v>156.71</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>19</v>
@@ -2648,65 +2768,67 @@
         <v>202510</v>
       </c>
       <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
+      <c r="P32" s="3" t="s">
+        <v>142</v>
+      </c>
       <c r="Q32" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>76487964</v>
+        <v>76476023</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="F33" s="3">
-        <v>20170417543</v>
+        <v>20600140451</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H33" s="3">
-        <v>20170417543</v>
+        <v>20600140451</v>
       </c>
       <c r="I33" s="4">
-        <v>46006</v>
+        <v>46003</v>
       </c>
       <c r="J33" s="7">
         <f t="shared" si="0"/>
-        <v>51.779661016949156</v>
+        <v>86.211864406779668</v>
       </c>
       <c r="K33" s="7">
         <f t="shared" si="1"/>
-        <v>9.3203389830508474</v>
+        <v>15.51813559322034</v>
       </c>
       <c r="L33" s="8">
-        <v>61.1</v>
+        <v>101.73</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N33" s="3">
-        <v>199807</v>
+        <v>202510</v>
       </c>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>76474266</v>
+        <v>76487964</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>48</v>
@@ -2715,52 +2837,52 @@
         <v>53</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="F34" s="3">
-        <v>20302061425</v>
+        <v>20170417543</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H34" s="3">
-        <v>20302061425</v>
+        <v>20170417543</v>
       </c>
       <c r="I34" s="4">
         <v>46006</v>
       </c>
       <c r="J34" s="7">
         <f t="shared" si="0"/>
-        <v>162.5</v>
+        <v>51.779661016949156</v>
       </c>
       <c r="K34" s="7">
         <f t="shared" si="1"/>
-        <v>29.25</v>
+        <v>9.3203389830508474</v>
       </c>
       <c r="L34" s="8">
-        <v>191.75</v>
+        <v>61.1</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N34" s="3">
-        <v>202510</v>
+        <v>199807</v>
       </c>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>76477210</v>
+        <v>76474266</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>53</v>
@@ -2772,27 +2894,27 @@
         <v>17</v>
       </c>
       <c r="F35" s="3">
-        <v>20604322678</v>
+        <v>20302061425</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H35" s="3">
-        <v>20604322678</v>
+        <v>20302061425</v>
       </c>
       <c r="I35" s="4">
         <v>46006</v>
       </c>
       <c r="J35" s="7">
         <f t="shared" si="0"/>
-        <v>56.016949152542374</v>
+        <v>162.5</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="1"/>
-        <v>10.083050847457628</v>
+        <v>29.25</v>
       </c>
       <c r="L35" s="8">
-        <v>66.099999999999994</v>
+        <v>191.75</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>19</v>
@@ -2801,121 +2923,121 @@
         <v>202510</v>
       </c>
       <c r="O35" s="3"/>
-      <c r="P35" s="3" t="s">
-        <v>147</v>
-      </c>
+      <c r="P35" s="3"/>
       <c r="Q35" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>76513681</v>
+        <v>76477210</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F36" s="3">
-        <v>20509470848</v>
+        <v>20604322678</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H36" s="3">
-        <v>20509470848</v>
+        <v>20604322678</v>
       </c>
       <c r="I36" s="4">
         <v>46006</v>
       </c>
       <c r="J36" s="7">
         <f t="shared" si="0"/>
-        <v>815.0593220338983</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K36" s="7">
         <f t="shared" si="1"/>
-        <v>146.71067796610168</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L36" s="8">
-        <v>961.77</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="N36" s="3">
+        <v>202510</v>
+      </c>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="37" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>76477683</v>
+        <v>76513681</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F37" s="3">
-        <v>20606399279</v>
+        <v>20509470848</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H37" s="3">
-        <v>20606399279</v>
+        <v>20509470848</v>
       </c>
       <c r="I37" s="4">
         <v>46006</v>
       </c>
       <c r="J37" s="7">
         <f t="shared" si="0"/>
-        <v>157.54237288135596</v>
+        <v>815.0593220338983</v>
       </c>
       <c r="K37" s="7">
         <f t="shared" si="1"/>
-        <v>28.357627118644071</v>
+        <v>146.71067796610168</v>
       </c>
       <c r="L37" s="8">
-        <v>185.9</v>
+        <v>961.77</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N37" s="3">
-        <v>202510</v>
-      </c>
-      <c r="O37" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="P37" s="3"/>
-      <c r="Q37" s="3" t="s">
-        <v>151</v>
-      </c>
+      <c r="Q37" s="3"/>
     </row>
     <row r="38" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>76474264</v>
+        <v>76477683</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>53</v>
@@ -2927,27 +3049,27 @@
         <v>17</v>
       </c>
       <c r="F38" s="3">
-        <v>20298537461</v>
+        <v>20606399279</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H38" s="3">
-        <v>20298537461</v>
+        <v>20606399279</v>
       </c>
       <c r="I38" s="4">
         <v>46006</v>
       </c>
       <c r="J38" s="7">
         <f t="shared" si="0"/>
-        <v>86.440677966101703</v>
+        <v>157.54237288135596</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="1"/>
-        <v>15.559322033898306</v>
+        <v>28.357627118644071</v>
       </c>
       <c r="L38" s="8">
-        <v>102</v>
+        <v>185.9</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>19</v>
@@ -2956,49 +3078,49 @@
         <v>202510</v>
       </c>
       <c r="O38" s="3"/>
-      <c r="P38" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="39" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>76498557</v>
+        <v>76474264</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="F39" s="3">
-        <v>20514534251</v>
+        <v>20298537461</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H39" s="3">
-        <v>20514534251</v>
+        <v>20298537461</v>
       </c>
       <c r="I39" s="4">
-        <v>46007</v>
+        <v>46006</v>
       </c>
       <c r="J39" s="7">
         <f t="shared" si="0"/>
-        <v>56.016949152542374</v>
+        <v>86.440677966101703</v>
       </c>
       <c r="K39" s="7">
         <f t="shared" si="1"/>
-        <v>10.083050847457628</v>
+        <v>15.559322033898306</v>
       </c>
       <c r="L39" s="8">
-        <v>66.099999999999994</v>
+        <v>102</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>19</v>
@@ -3007,47 +3129,51 @@
         <v>202510</v>
       </c>
       <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
+      <c r="P39" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="40" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>76474877</v>
+        <v>76498557</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="F40" s="3">
-        <v>20511763089</v>
+        <v>20514534251</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H40" s="3">
-        <v>20511763089</v>
+        <v>20514534251</v>
       </c>
       <c r="I40" s="4">
         <v>46007</v>
       </c>
       <c r="J40" s="7">
         <f t="shared" si="0"/>
-        <v>189.11864406779662</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K40" s="7">
         <f t="shared" si="1"/>
-        <v>34.041355932203388</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L40" s="8">
-        <v>223.16</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>19</v>
@@ -3056,17 +3182,17 @@
         <v>202510</v>
       </c>
       <c r="O40" s="3"/>
-      <c r="P40" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="41" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>76478040</v>
+        <v>76474877</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>53</v>
@@ -3078,27 +3204,27 @@
         <v>17</v>
       </c>
       <c r="F41" s="3">
-        <v>20608123696</v>
+        <v>20511763089</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H41" s="3">
-        <v>20608123696</v>
+        <v>20511763089</v>
       </c>
       <c r="I41" s="4">
-        <v>46008</v>
+        <v>46007</v>
       </c>
       <c r="J41" s="7">
         <f t="shared" si="0"/>
-        <v>56.016949152542374</v>
+        <v>189.11864406779662</v>
       </c>
       <c r="K41" s="7">
         <f t="shared" si="1"/>
-        <v>10.083050847457628</v>
+        <v>34.041355932203388</v>
       </c>
       <c r="L41" s="8">
-        <v>66.099999999999994</v>
+        <v>223.16</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>19</v>
@@ -3108,13 +3234,15 @@
       </c>
       <c r="O41" s="3"/>
       <c r="P41" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q41" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="42" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>76476898</v>
+        <v>76478040</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>15</v>
@@ -3129,27 +3257,27 @@
         <v>17</v>
       </c>
       <c r="F42" s="3">
-        <v>20603066112</v>
+        <v>20608123696</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H42" s="3">
-        <v>20603066112</v>
+        <v>20608123696</v>
       </c>
       <c r="I42" s="4">
         <v>46008</v>
       </c>
       <c r="J42" s="7">
         <f t="shared" si="0"/>
-        <v>90.677966101694921</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K42" s="7">
         <f t="shared" si="1"/>
-        <v>16.322033898305087</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L42" s="8">
-        <v>107</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>19</v>
@@ -3159,13 +3287,15 @@
       </c>
       <c r="O42" s="3"/>
       <c r="P42" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q42" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="43" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>76477208</v>
+        <v>76476898</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>15</v>
@@ -3180,27 +3310,27 @@
         <v>17</v>
       </c>
       <c r="F43" s="3">
-        <v>20604312583</v>
+        <v>20603066112</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H43" s="3">
-        <v>20604312583</v>
+        <v>20603066112</v>
       </c>
       <c r="I43" s="4">
         <v>46008</v>
       </c>
       <c r="J43" s="7">
         <f t="shared" si="0"/>
-        <v>62.711864406779661</v>
+        <v>90.677966101694921</v>
       </c>
       <c r="K43" s="7">
         <f t="shared" si="1"/>
-        <v>11.288135593220339</v>
+        <v>16.322033898305087</v>
       </c>
       <c r="L43" s="8">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>19</v>
@@ -3210,13 +3340,15 @@
       </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q43" s="3"/>
+        <v>154</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="44" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>76474010</v>
+        <v>76477208</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>15</v>
@@ -3231,43 +3363,45 @@
         <v>17</v>
       </c>
       <c r="F44" s="3">
-        <v>41673301</v>
+        <v>20604312583</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H44" s="3">
-        <v>10416733011</v>
+        <v>20604312583</v>
       </c>
       <c r="I44" s="4">
         <v>46008</v>
       </c>
       <c r="J44" s="7">
         <f t="shared" si="0"/>
-        <v>79.66101694915254</v>
+        <v>62.711864406779661</v>
       </c>
       <c r="K44" s="7">
         <f t="shared" si="1"/>
-        <v>14.338983050847457</v>
+        <v>11.288135593220339</v>
       </c>
       <c r="L44" s="8">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>140</v>
+      <c r="N44" s="3">
+        <v>202510</v>
       </c>
       <c r="O44" s="3"/>
       <c r="P44" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q44" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="45" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>76475605</v>
+        <v>76474010</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>15</v>
@@ -3282,27 +3416,27 @@
         <v>17</v>
       </c>
       <c r="F45" s="3">
-        <v>20551438113</v>
+        <v>41673301</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H45" s="3">
-        <v>20551438113</v>
+        <v>10416733011</v>
       </c>
       <c r="I45" s="4">
         <v>46008</v>
       </c>
       <c r="J45" s="7">
         <f t="shared" si="0"/>
-        <v>117.79661016949153</v>
+        <v>79.66101694915254</v>
       </c>
       <c r="K45" s="7">
         <f t="shared" si="1"/>
-        <v>21.203389830508474</v>
+        <v>14.338983050847457</v>
       </c>
       <c r="L45" s="8">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>19</v>
@@ -3312,16 +3446,18 @@
       </c>
       <c r="O45" s="3"/>
       <c r="P45" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q45" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="46" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>76476513</v>
+        <v>76475605</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>53</v>
@@ -3333,41 +3469,45 @@
         <v>17</v>
       </c>
       <c r="F46" s="3">
-        <v>20601813832</v>
+        <v>20551438113</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H46" s="3">
-        <v>20601813832</v>
+        <v>20551438113</v>
       </c>
       <c r="I46" s="4">
-        <v>46002</v>
+        <v>46008</v>
       </c>
       <c r="J46" s="7">
         <f t="shared" si="0"/>
-        <v>104.48305084745763</v>
+        <v>117.79661016949153</v>
       </c>
       <c r="K46" s="7">
         <f t="shared" si="1"/>
-        <v>18.806949152542373</v>
+        <v>21.203389830508474</v>
       </c>
       <c r="L46" s="8">
-        <v>123.29</v>
+        <v>139</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N46" s="3">
-        <v>202510</v>
+      <c r="N46" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
+      <c r="P46" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="47" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>76475776</v>
+        <v>76476513</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>20</v>
@@ -3382,27 +3522,27 @@
         <v>17</v>
       </c>
       <c r="F47" s="3">
-        <v>20556935280</v>
+        <v>20601813832</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H47" s="3">
-        <v>20556935280</v>
+        <v>20601813832</v>
       </c>
       <c r="I47" s="4">
-        <v>46008</v>
+        <v>46002</v>
       </c>
       <c r="J47" s="7">
         <f t="shared" si="0"/>
-        <v>111.56779661016951</v>
+        <v>104.48305084745763</v>
       </c>
       <c r="K47" s="7">
         <f t="shared" si="1"/>
-        <v>20.082203389830511</v>
+        <v>18.806949152542373</v>
       </c>
       <c r="L47" s="8">
-        <v>131.65</v>
+        <v>123.29</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>19</v>
@@ -3412,14 +3552,16 @@
       </c>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
+      <c r="Q47" s="3" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="48" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>76476825</v>
+        <v>76475776</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>53</v>
@@ -3431,46 +3573,46 @@
         <v>17</v>
       </c>
       <c r="F48" s="3">
-        <v>20602849636</v>
+        <v>20556935280</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H48" s="3">
-        <v>20602849636</v>
+        <v>20556935280</v>
       </c>
       <c r="I48" s="4">
         <v>46008</v>
       </c>
       <c r="J48" s="7">
         <f t="shared" si="0"/>
-        <v>68.457627118644069</v>
+        <v>111.56779661016951</v>
       </c>
       <c r="K48" s="7">
         <f t="shared" si="1"/>
-        <v>12.322372881355932</v>
+        <v>20.082203389830511</v>
       </c>
       <c r="L48" s="8">
-        <v>80.78</v>
+        <v>131.65</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>140</v>
+      <c r="N48" s="3">
+        <v>202510</v>
       </c>
       <c r="O48" s="3"/>
-      <c r="P48" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="49" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>76477775</v>
+        <v>76476825</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>53</v>
@@ -3482,44 +3624,48 @@
         <v>17</v>
       </c>
       <c r="F49" s="3">
-        <v>20606753820</v>
+        <v>20602849636</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H49" s="3">
-        <v>20606753820</v>
+        <v>20602849636</v>
       </c>
       <c r="I49" s="4">
         <v>46008</v>
       </c>
       <c r="J49" s="7">
         <f t="shared" si="0"/>
-        <v>60.406779661016955</v>
+        <v>68.457627118644069</v>
       </c>
       <c r="K49" s="7">
         <f t="shared" si="1"/>
-        <v>10.873220338983051</v>
+        <v>12.322372881355932</v>
       </c>
       <c r="L49" s="8">
-        <v>71.28</v>
+        <v>80.78</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N49" s="3">
-        <v>202510</v>
+      <c r="N49" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
+      <c r="P49" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="50" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>76474698</v>
+        <v>76477775</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>53</v>
@@ -3531,45 +3677,43 @@
         <v>17</v>
       </c>
       <c r="F50" s="3">
-        <v>20492994945</v>
+        <v>20606753820</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H50" s="3">
-        <v>20492994945</v>
+        <v>20606753820</v>
       </c>
       <c r="I50" s="4">
         <v>46008</v>
       </c>
       <c r="J50" s="7">
         <f t="shared" si="0"/>
-        <v>281.35593220338984</v>
+        <v>60.406779661016955</v>
       </c>
       <c r="K50" s="7">
         <f t="shared" si="1"/>
-        <v>50.644067796610166</v>
+        <v>10.873220338983051</v>
       </c>
       <c r="L50" s="8">
-        <v>332</v>
+        <v>71.28</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N50" s="3">
         <v>202510</v>
       </c>
-      <c r="O50" s="3">
-        <v>202510</v>
-      </c>
-      <c r="P50" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="51" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>76477704</v>
+        <v>76474698</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>15</v>
@@ -3584,43 +3728,45 @@
         <v>17</v>
       </c>
       <c r="F51" s="3">
-        <v>20606518235</v>
+        <v>20492994945</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H51" s="3">
-        <v>20606518235</v>
+        <v>20492994945</v>
       </c>
       <c r="I51" s="4">
-        <v>46009</v>
+        <v>46008</v>
       </c>
       <c r="J51" s="7">
         <f t="shared" si="0"/>
-        <v>60.16949152542373</v>
+        <v>281.35593220338984</v>
       </c>
       <c r="K51" s="7">
         <f t="shared" si="1"/>
-        <v>10.830508474576272</v>
+        <v>50.644067796610166</v>
       </c>
       <c r="L51" s="8">
-        <v>71</v>
+        <v>332</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N51" s="3">
         <v>202510</v>
       </c>
-      <c r="O51" s="3"/>
+      <c r="O51" s="3">
+        <v>202510</v>
+      </c>
       <c r="P51" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q51" s="3"/>
     </row>
     <row r="52" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>76478655</v>
+        <v>76477704</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>15</v>
@@ -3635,43 +3781,43 @@
         <v>17</v>
       </c>
       <c r="F52" s="3">
-        <v>20610621351</v>
+        <v>20606518235</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H52" s="3">
-        <v>20610621351</v>
+        <v>20606518235</v>
       </c>
       <c r="I52" s="4">
         <v>46009</v>
       </c>
       <c r="J52" s="7">
         <f t="shared" si="0"/>
-        <v>78.813559322033896</v>
+        <v>60.16949152542373</v>
       </c>
       <c r="K52" s="7">
         <f t="shared" si="1"/>
-        <v>14.1864406779661</v>
+        <v>10.830508474576272</v>
       </c>
       <c r="L52" s="8">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>135</v>
+      <c r="N52" s="3">
+        <v>202510</v>
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q52" s="3"/>
     </row>
     <row r="53" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>76477598</v>
+        <v>76478655</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>15</v>
@@ -3686,43 +3832,43 @@
         <v>17</v>
       </c>
       <c r="F53" s="3">
-        <v>20606102187</v>
+        <v>20610621351</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H53" s="3">
-        <v>20606102187</v>
+        <v>20610621351</v>
       </c>
       <c r="I53" s="4">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="J53" s="7">
         <f t="shared" si="0"/>
-        <v>136.4406779661017</v>
+        <v>78.813559322033896</v>
       </c>
       <c r="K53" s="7">
         <f t="shared" si="1"/>
-        <v>24.559322033898304</v>
+        <v>14.1864406779661</v>
       </c>
       <c r="L53" s="8">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N53" s="3">
-        <v>202510</v>
+      <c r="N53" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="O53" s="3"/>
       <c r="P53" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q53" s="3"/>
     </row>
     <row r="54" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>76475622</v>
+        <v>76477598</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>15</v>
@@ -3737,27 +3883,27 @@
         <v>17</v>
       </c>
       <c r="F54" s="3">
-        <v>20551916970</v>
+        <v>20606102187</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H54" s="3">
-        <v>20551916970</v>
+        <v>20606102187</v>
       </c>
       <c r="I54" s="4">
-        <v>46009</v>
+        <v>46008</v>
       </c>
       <c r="J54" s="7">
         <f t="shared" si="0"/>
-        <v>56.016949152542374</v>
+        <v>136.4406779661017</v>
       </c>
       <c r="K54" s="7">
         <f t="shared" si="1"/>
-        <v>10.083050847457628</v>
+        <v>24.559322033898304</v>
       </c>
       <c r="L54" s="8">
-        <v>66.099999999999994</v>
+        <v>161</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>19</v>
@@ -3767,13 +3913,13 @@
       </c>
       <c r="O54" s="3"/>
       <c r="P54" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q54" s="3"/>
     </row>
     <row r="55" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>76474540</v>
+        <v>76475622</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>15</v>
@@ -3788,13 +3934,13 @@
         <v>17</v>
       </c>
       <c r="F55" s="3">
-        <v>20478157976</v>
+        <v>20551916970</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H55" s="3">
-        <v>20478157976</v>
+        <v>20551916970</v>
       </c>
       <c r="I55" s="4">
         <v>46009</v>
@@ -3818,16 +3964,16 @@
       </c>
       <c r="O55" s="3"/>
       <c r="P55" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>76475394</v>
+        <v>76474540</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>53</v>
@@ -3839,13 +3985,13 @@
         <v>17</v>
       </c>
       <c r="F56" s="3">
-        <v>20542353059</v>
+        <v>20478157976</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H56" s="3">
-        <v>20542353059</v>
+        <v>20478157976</v>
       </c>
       <c r="I56" s="4">
         <v>46009</v>
@@ -3868,12 +4014,14 @@
         <v>202510</v>
       </c>
       <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
+      <c r="P56" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="Q56" s="3"/>
     </row>
     <row r="57" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>76475653</v>
+        <v>76475394</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>20</v>
@@ -3888,13 +4036,13 @@
         <v>17</v>
       </c>
       <c r="F57" s="3">
-        <v>20552638337</v>
+        <v>20542353059</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H57" s="3">
-        <v>20552638337</v>
+        <v>20542353059</v>
       </c>
       <c r="I57" s="4">
         <v>46009</v>
@@ -3913,8 +4061,8 @@
       <c r="M57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>140</v>
+      <c r="N57" s="3">
+        <v>202510</v>
       </c>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
@@ -3922,10 +4070,10 @@
     </row>
     <row r="58" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>76479527</v>
+        <v>76475653</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>53</v>
@@ -3937,43 +4085,41 @@
         <v>17</v>
       </c>
       <c r="F58" s="3">
-        <v>20614566842</v>
+        <v>20552638337</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H58" s="3">
-        <v>20614566842</v>
+        <v>20552638337</v>
       </c>
       <c r="I58" s="4">
         <v>46009</v>
       </c>
       <c r="J58" s="7">
         <f t="shared" si="0"/>
-        <v>111.86440677966102</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K58" s="7">
         <f t="shared" si="1"/>
-        <v>20.135593220338983</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L58" s="8">
-        <v>132</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N58" s="3">
-        <v>202510</v>
+      <c r="N58" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="O58" s="3"/>
-      <c r="P58" s="3" t="s">
-        <v>165</v>
-      </c>
+      <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
     </row>
     <row r="59" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>76474203</v>
+        <v>76479527</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>15</v>
@@ -3988,27 +4134,27 @@
         <v>17</v>
       </c>
       <c r="F59" s="3">
-        <v>20113539675</v>
+        <v>20614566842</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H59" s="3">
-        <v>20113539675</v>
+        <v>20614566842</v>
       </c>
       <c r="I59" s="4">
-        <v>46010</v>
+        <v>46009</v>
       </c>
       <c r="J59" s="7">
         <f t="shared" si="0"/>
-        <v>56.016949152542374</v>
+        <v>111.86440677966102</v>
       </c>
       <c r="K59" s="7">
         <f t="shared" si="1"/>
-        <v>10.083050847457628</v>
+        <v>20.135593220338983</v>
       </c>
       <c r="L59" s="8">
-        <v>66.099999999999994</v>
+        <v>132</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>19</v>
@@ -4018,406 +4164,806 @@
       </c>
       <c r="O59" s="3"/>
       <c r="P59" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q59" s="3"/>
     </row>
     <row r="60" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="4"/>
+      <c r="A60" s="3">
+        <v>76474203</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="3">
+        <v>20113539675</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H60" s="3">
+        <v>20113539675</v>
+      </c>
+      <c r="I60" s="4">
+        <v>46010</v>
+      </c>
       <c r="J60" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K60" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L60" s="8"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L60" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N60" s="3">
+        <v>202510</v>
+      </c>
       <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
+      <c r="P60" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="Q60" s="3"/>
     </row>
     <row r="61" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="4"/>
+      <c r="A61" s="3">
+        <v>76473871</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="3">
+        <v>9941943</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H61" s="3">
+        <v>10099419437</v>
+      </c>
+      <c r="I61" s="4">
+        <v>46013</v>
+      </c>
       <c r="J61" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>74.576271186440678</v>
       </c>
       <c r="K61" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L61" s="8"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
+        <v>13.423728813559322</v>
+      </c>
+      <c r="L61" s="8">
+        <v>88</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="O61" s="3">
+        <v>202510</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="Q61" s="3"/>
     </row>
     <row r="62" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="4"/>
+      <c r="A62" s="3">
+        <v>76478856</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="3">
+        <v>20611542721</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H62" s="3">
+        <v>20611542721</v>
+      </c>
+      <c r="I62" s="4">
+        <v>46010</v>
+      </c>
       <c r="J62" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>216.88135593220338</v>
       </c>
       <c r="K62" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L62" s="8"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
+        <v>39.038644067796604</v>
+      </c>
+      <c r="L62" s="8">
+        <v>255.92</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N62" s="3">
+        <v>202510</v>
+      </c>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
       <c r="Q62" s="3"/>
     </row>
     <row r="63" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="4"/>
+      <c r="A63" s="3">
+        <v>76479209</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="3">
+        <v>20613040146</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="H63" s="3">
+        <v>20613040146</v>
+      </c>
+      <c r="I63" s="4">
+        <v>46010</v>
+      </c>
       <c r="J63" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>271.69491525423734</v>
       </c>
       <c r="K63" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L63" s="8"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
+        <v>48.905084745762721</v>
+      </c>
+      <c r="L63" s="8">
+        <v>320.60000000000002</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>200</v>
+      </c>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
       <c r="Q63" s="3"/>
     </row>
     <row r="64" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="4"/>
+      <c r="A64" s="3">
+        <v>76479156</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="3">
+        <v>20612797243</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H64" s="3">
+        <v>20612797243</v>
+      </c>
+      <c r="I64" s="4">
+        <v>46010</v>
+      </c>
       <c r="J64" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86.381355932203405</v>
       </c>
       <c r="K64" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L64" s="8"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
+        <v>15.548644067796612</v>
+      </c>
+      <c r="L64" s="8">
+        <v>101.93</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
       <c r="Q64" s="3"/>
     </row>
     <row r="65" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="4"/>
+      <c r="A65" s="3">
+        <v>76478745</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="3">
+        <v>20611056584</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H65" s="3">
+        <v>20611056584</v>
+      </c>
+      <c r="I65" s="4">
+        <v>46010</v>
+      </c>
       <c r="J65" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K65" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L65" s="8"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L65" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N65" s="3">
+        <v>202510</v>
+      </c>
       <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
+      <c r="P65" s="3" t="s">
+        <v>157</v>
+      </c>
       <c r="Q65" s="3"/>
     </row>
     <row r="66" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="4"/>
+      <c r="A66" s="3">
+        <v>76473820</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="3">
+        <v>2867667</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H66" s="3">
+        <v>10028676676</v>
+      </c>
+      <c r="I66" s="4">
+        <v>46010</v>
+      </c>
       <c r="J66" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="J66:J129" si="2">+L66/1.18</f>
+        <v>62.711864406779661</v>
       </c>
       <c r="K66" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L66" s="8"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
+        <f t="shared" ref="K66:K129" si="3">J66*0.18</f>
+        <v>11.288135593220339</v>
+      </c>
+      <c r="L66" s="8">
+        <v>74</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>201</v>
+      </c>
       <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
+      <c r="P66" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="Q66" s="3"/>
     </row>
     <row r="67" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="4"/>
+      <c r="A67" s="3">
+        <v>76478099</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="3">
+        <v>20608421671</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H67" s="3">
+        <v>20608421671</v>
+      </c>
+      <c r="I67" s="4">
+        <v>46010</v>
+      </c>
       <c r="J67" s="7">
-        <f t="shared" ref="J67:J130" si="2">+L67/1.18</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>195.22881355932205</v>
       </c>
       <c r="K67" s="7">
-        <f t="shared" ref="K67:K130" si="3">J67*0.18</f>
-        <v>0</v>
-      </c>
-      <c r="L67" s="8"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
+        <f t="shared" si="3"/>
+        <v>35.14118644067797</v>
+      </c>
+      <c r="L67" s="8">
+        <v>230.37</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
+      <c r="P67" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="Q67" s="3"/>
     </row>
     <row r="68" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="4"/>
+      <c r="A68" s="3">
+        <v>76478834</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="3">
+        <v>20611458411</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H68" s="3">
+        <v>20611458411</v>
+      </c>
+      <c r="I68" s="4">
+        <v>46010</v>
+      </c>
       <c r="J68" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>78.033898305084747</v>
       </c>
       <c r="K68" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L68" s="8"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
+        <v>14.046101694915254</v>
+      </c>
+      <c r="L68" s="8">
+        <v>92.08</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
       <c r="Q68" s="3"/>
     </row>
     <row r="69" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="4"/>
+      <c r="A69" s="3">
+        <v>76513510</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" s="3">
+        <v>20506112487</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H69" s="3">
+        <v>20506112487</v>
+      </c>
+      <c r="I69" s="4">
+        <v>46010</v>
+      </c>
       <c r="J69" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1074.3474576271187</v>
       </c>
       <c r="K69" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L69" s="8"/>
-      <c r="M69" s="3"/>
+        <v>193.38254237288137</v>
+      </c>
+      <c r="L69" s="8">
+        <v>1267.73</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>197</v>
+      </c>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
+      <c r="P69" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="Q69" s="3"/>
     </row>
     <row r="70" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="4"/>
+      <c r="A70" s="3">
+        <v>76501464</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F70" s="3">
+        <v>20551106897</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H70" s="3">
+        <v>20551106897</v>
+      </c>
+      <c r="I70" s="4">
+        <v>46010</v>
+      </c>
       <c r="J70" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>235.18644067796609</v>
       </c>
       <c r="K70" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L70" s="8"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
+        <v>42.333559322033892</v>
+      </c>
+      <c r="L70" s="8">
+        <v>277.52</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N70" s="3">
+        <v>202510</v>
+      </c>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3"/>
     </row>
     <row r="71" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="4"/>
+      <c r="A71" s="3">
+        <v>76479150</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="3">
+        <v>20612770621</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H71" s="3">
+        <v>20612770621</v>
+      </c>
+      <c r="I71" s="4">
+        <v>46003</v>
+      </c>
       <c r="J71" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>147.77966101694915</v>
       </c>
       <c r="K71" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L71" s="8"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
+        <v>26.600338983050847</v>
+      </c>
+      <c r="L71" s="8">
+        <v>174.38</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
       <c r="Q71" s="3"/>
     </row>
     <row r="72" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="4"/>
+      <c r="A72" s="3">
+        <v>76474511</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="3">
+        <v>20475236131</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H72" s="3">
+        <v>20475236131</v>
+      </c>
+      <c r="I72" s="4">
+        <v>46010</v>
+      </c>
       <c r="J72" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>86.440677966101703</v>
       </c>
       <c r="K72" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L72" s="8"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
+        <v>15.559322033898306</v>
+      </c>
+      <c r="L72" s="8">
+        <v>102</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N72" s="3">
+        <v>202505</v>
+      </c>
       <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
+      <c r="P72" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="Q72" s="3"/>
     </row>
     <row r="73" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="4"/>
+      <c r="A73" s="3">
+        <v>76475422</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="3">
+        <v>20544097700</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H73" s="3">
+        <v>20544097700</v>
+      </c>
+      <c r="I73" s="4">
+        <v>46010</v>
+      </c>
       <c r="J73" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60.016949152542374</v>
       </c>
       <c r="K73" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L73" s="8"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
+        <v>10.803050847457627</v>
+      </c>
+      <c r="L73" s="8">
+        <v>70.819999999999993</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N73" s="3">
+        <v>202510</v>
+      </c>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
     </row>
     <row r="74" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="4"/>
+      <c r="A74" s="3">
+        <v>76478142</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="3">
+        <v>20608549332</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="H74" s="3">
+        <v>20608549332</v>
+      </c>
+      <c r="I74" s="4">
+        <v>46011</v>
+      </c>
       <c r="J74" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>184.85593220338984</v>
       </c>
       <c r="K74" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L74" s="8"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
+        <v>33.274067796610169</v>
+      </c>
+      <c r="L74" s="8">
+        <v>218.13</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N74" s="3">
+        <v>202510</v>
+      </c>
       <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
+      <c r="P74" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="Q74" s="3"/>
     </row>
     <row r="75" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="4"/>
+      <c r="A75" s="3">
+        <v>76477146</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="3">
+        <v>20604020329</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H75" s="3">
+        <v>20604020329</v>
+      </c>
+      <c r="I75" s="4">
+        <v>46013</v>
+      </c>
       <c r="J75" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>399.5169491525424</v>
       </c>
       <c r="K75" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L75" s="8"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
+        <v>71.913050847457626</v>
+      </c>
+      <c r="L75" s="8">
+        <v>471.43</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N75" s="3">
+        <v>202510</v>
+      </c>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
       <c r="Q75" s="3"/>
@@ -5783,11 +6329,11 @@
       <c r="H130" s="3"/>
       <c r="I130" s="4"/>
       <c r="J130" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J130:J134" si="4">+L130/1.18</f>
         <v>0</v>
       </c>
       <c r="K130" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K130:K134" si="5">J130*0.18</f>
         <v>0</v>
       </c>
       <c r="L130" s="8"/>
@@ -5808,11 +6354,11 @@
       <c r="H131" s="3"/>
       <c r="I131" s="4"/>
       <c r="J131" s="7">
-        <f t="shared" ref="J131:J135" si="4">+L131/1.18</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K131" s="7">
-        <f t="shared" ref="K131:K135" si="5">J131*0.18</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L131" s="8"/>
@@ -5898,42 +6444,17 @@
       <c r="Q134" s="3"/>
     </row>
     <row r="135" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K135" s="7">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L135" s="8"/>
-      <c r="M135" s="3"/>
-      <c r="N135" s="3"/>
-      <c r="O135" s="3"/>
-      <c r="P135" s="3"/>
-      <c r="Q135" s="3"/>
-    </row>
-    <row r="136" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J136" s="11">
-        <f>SUBTOTAL(9,J2:J135)</f>
-        <v>6498.6271186440672</v>
-      </c>
-      <c r="K136" s="11">
-        <f>SUBTOTAL(9,K2:K135)</f>
-        <v>1169.7528813559318</v>
-      </c>
-      <c r="L136" s="11">
-        <f>SUM(L2:L135)</f>
-        <v>7668.38</v>
+      <c r="J135" s="11">
+        <f>SUBTOTAL(9,J2:J134)</f>
+        <v>9784.3135593220377</v>
+      </c>
+      <c r="K135" s="11">
+        <f>SUBTOTAL(9,K2:K134)</f>
+        <v>1761.1764406779655</v>
+      </c>
+      <c r="L135" s="11">
+        <f>SUM(L2:L134)</f>
+        <v>11545.49</v>
       </c>
     </row>
   </sheetData>

--- a/CIERRE GASTOS ADMINISTRATIVOS DICIEMBRE 2025.xlsx
+++ b/CIERRE GASTOS ADMINISTRATIVOS DICIEMBRE 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\PAGOS DICIEMBRE\CIERRE-PAGOS-DICIEMBRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7033E7CD-7DF7-4D13-98AB-82D293B95F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847F3E0B-6457-4457-AB04-E0308C607ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D111AC9-F4B5-4EE1-9519-BE4E4E92E24D}"/>
   </bookViews>
@@ -1094,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620BD549-6BD9-4566-86B2-4950053DB95E}">
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/CIERRE GASTOS ADMINISTRATIVOS DICIEMBRE 2025.xlsx
+++ b/CIERRE GASTOS ADMINISTRATIVOS DICIEMBRE 2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\PAGOS DICIEMBRE\CIERRE-PAGOS-DICIEMBRE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\PAGOS DICIEMBRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847F3E0B-6457-4457-AB04-E0308C607ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7151E0A1-90A2-47DD-91E2-15C5C8965C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D111AC9-F4B5-4EE1-9519-BE4E4E92E24D}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$Q$135</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="293">
   <si>
     <t>ID_OBLIGACION</t>
   </si>
@@ -252,28 +252,31 @@
     <t>BUSY BIZ SOLUTIONS S.A.C.</t>
   </si>
   <si>
+    <t>DORAL SOLUCIONES PERU E.I.R.L.</t>
+  </si>
+  <si>
+    <t>HINOSTROZA GOMEZ JOSE</t>
+  </si>
+  <si>
+    <t>BONILLA PEREZ JHON ARMANDO</t>
+  </si>
+  <si>
+    <t>MAMANI MOGROVEJO RONDOLFO</t>
+  </si>
+  <si>
+    <t>encargado de pago</t>
+  </si>
+  <si>
+    <t>NARVAEZ YSELA MIRIAM</t>
+  </si>
+  <si>
+    <t>RABANAL MISARI ANA MARIA</t>
+  </si>
+  <si>
     <t>FAMIP INDUSTRIAL S.A.C.</t>
   </si>
   <si>
-    <t>DORAL SOLUCIONES PERU E.I.R.L.</t>
-  </si>
-  <si>
-    <t>HINOSTROZA GOMEZ JOSE</t>
-  </si>
-  <si>
-    <t>BONILLA PEREZ JHON ARMANDO</t>
-  </si>
-  <si>
-    <t>MAMANI MOGROVEJO RONDOLFO</t>
-  </si>
-  <si>
-    <t>encargado de pago</t>
-  </si>
-  <si>
-    <t>NARVAEZ YSELA MIRIAM</t>
-  </si>
-  <si>
-    <t>RABANAL MISARI ANA MARIA</t>
+    <t>REPRESENTACIONES E &amp; N PALOMINO S.A.C.</t>
   </si>
   <si>
     <t>CITEC SERVICES PERU S.A.C.</t>
@@ -378,6 +381,141 @@
     <t>DISTRIBUIDORA DE PERNOS DEL NORTE SRLTDA</t>
   </si>
   <si>
+    <t>GRUPO ACP INVERSIONES Y DESARROLLO</t>
+  </si>
+  <si>
+    <t>SARAVIA OLIVER MARTHA ESTHER ANGELA MILAGROS</t>
+  </si>
+  <si>
+    <t>GRUPO BIOTECH S.A.C.</t>
+  </si>
+  <si>
+    <t>MUNAY &amp;FAM SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>MEDICAL GROUP LRG E.I.R.L.</t>
+  </si>
+  <si>
+    <t>HOLDING E INVERSIONES CHYP E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CORREA YAJAHUANCA OTILIO</t>
+  </si>
+  <si>
+    <t>MANUFACTURAS YANVAR S.A.C.</t>
+  </si>
+  <si>
+    <t>TRANSPORTES SANTO DOMINGO ICA SOCIEDAD ANONIMA CERRADA</t>
+  </si>
+  <si>
+    <t>ESPARTA CONSTRUCTORES S.A.</t>
+  </si>
+  <si>
+    <t>SOCIEDAD MINERA EL TRIUNFO S.A.</t>
+  </si>
+  <si>
+    <t>RONESK S.A.C.</t>
+  </si>
+  <si>
+    <t>SIMONS &amp; DE NORIEGA ABOGADOS SOCIEDAD CIVIL DE RESPONSABILIDAD LIMITADA-SIMONS &amp; DE NORIEGA S. CIVIL</t>
+  </si>
+  <si>
+    <t>GRUPO INMOBILIARIO PRO PERU S.A.C.</t>
+  </si>
+  <si>
+    <t>ALKHA &amp; CIA S.A.C.</t>
+  </si>
+  <si>
+    <t>INVERSIONES TRANSPORTES &amp; SERVICIOS GENERALES ARARAT EMPRESA INDIVIDUAL DE RESPONSABILIDAD LIMITADA</t>
+  </si>
+  <si>
+    <t>EMI GROUP PERU E.I.R.L.</t>
+  </si>
+  <si>
+    <t>FORESTALES DAXSA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>CENTRO ODONTOLOGICO MINI SONRISAS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>PUBLICIDAD DEPORTIVA S.A.C.</t>
+  </si>
+  <si>
+    <t>BONANZAS MARINAS E.I.R.L.</t>
+  </si>
+  <si>
+    <t>PADILLA &amp; PORTUGAL CONSTRUCTORES E.I.R.L.</t>
+  </si>
+  <si>
+    <t>ALVARADO CAMPOS FAUSTINO FRANCISCO</t>
+  </si>
+  <si>
+    <t>ESLAVA PARRA YIDDA BEATRIZ</t>
+  </si>
+  <si>
+    <t>TEJAS Y CHOCOTEJAS SRA. BUENDIA S.A.C.</t>
+  </si>
+  <si>
+    <t>PERU CAPITAL CIEN S.A.C</t>
+  </si>
+  <si>
+    <t>MARSA &amp; INFRAESTRUCTURAS S.A.C.</t>
+  </si>
+  <si>
+    <t>DIAZ PIZANGO CESAR</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDORA Y SERVICIOS MULTIPLES FAGRE.A S.R.L.</t>
+  </si>
+  <si>
+    <t>SERVICIOS GENERALES GILBERTO SOCIEDD ANONIMA CERRADA-SERVICIOS GENERALES GILBERTO S.A.C.</t>
+  </si>
+  <si>
+    <t>ECOFINA P &amp; G DIORGANIC E.I.R.L..</t>
+  </si>
+  <si>
+    <t>OBRICOM YPK S.A.</t>
+  </si>
+  <si>
+    <t>VLC SERVICIOS MEDICOS S.A.C.</t>
+  </si>
+  <si>
+    <t>CONSTRUCTORA Y SERVICIOS GENERALES PAMAR S.A.C.</t>
+  </si>
+  <si>
+    <t>TRANSPORTES MOCHICA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>EL ASADOR CARNES AL CILINDRO S.R.L.</t>
+  </si>
+  <si>
+    <t>PEÑA HERNANDEZ MARCOS JAHIR</t>
+  </si>
+  <si>
+    <t>HR INNOVA S.A.C.</t>
+  </si>
+  <si>
+    <t>JUAN FELIX</t>
+  </si>
+  <si>
+    <t>MUELLES OPERADOR LOGISTICO S.A.C.</t>
+  </si>
+  <si>
+    <t>CONSTRUCTORA ARQCO S.R.L.</t>
+  </si>
+  <si>
+    <t>INSTITUTO DE CIENCIAS MEDICAS DEL SUR S.A.C.</t>
+  </si>
+  <si>
+    <t>INMOBILIARIA EBENEZER AMERICA E.I.R.L.</t>
+  </si>
+  <si>
+    <t>NATURAL BEAUTY IMPORT S.A.C.</t>
+  </si>
+  <si>
+    <t>FLUIDMAN E.I.R.L.</t>
+  </si>
+  <si>
     <t>F001-00035349</t>
   </si>
   <si>
@@ -453,12 +591,21 @@
     <t>F001-00035563</t>
   </si>
   <si>
+    <t>ARIANA (EP)</t>
+  </si>
+  <si>
+    <t>F001-00035642</t>
+  </si>
+  <si>
     <t>201401|201402|201403|201405|201406|201407|201408|201409|201411|201412|201501|201502|201503|201505</t>
   </si>
   <si>
     <t>201101|201102|201103|201105|201106|201107|201108|201109|201111|201112|201301|201302|201303|201305|201306|201307|201308|201309|201311|201312</t>
   </si>
   <si>
+    <t>F001-00035808</t>
+  </si>
+  <si>
     <t>F001-00035653</t>
   </si>
   <si>
@@ -495,172 +642,283 @@
     <t>201107|201109|201110|201111|201112|201201|201203|201204|201205|201206|201208|201210</t>
   </si>
   <si>
+    <t>F001-00035809</t>
+  </si>
+  <si>
     <t>F001-00035685</t>
   </si>
   <si>
     <t>VICTOR GARRIDO</t>
   </si>
   <si>
+    <t>F001-00035717</t>
+  </si>
+  <si>
+    <t>F001-00035732</t>
+  </si>
+  <si>
+    <t>F001-00035737</t>
+  </si>
+  <si>
     <t>RUTH</t>
   </si>
   <si>
+    <t>F001-00035766</t>
+  </si>
+  <si>
     <t>ALDAIR</t>
   </si>
   <si>
+    <t>F001-00035772</t>
+  </si>
+  <si>
     <t>OSCAR GUEVARA</t>
   </si>
   <si>
+    <t>F001-00035773</t>
+  </si>
+  <si>
     <t>KATERIN</t>
   </si>
   <si>
+    <t>F001-00035774</t>
+  </si>
+  <si>
     <t>CARLOS</t>
   </si>
   <si>
+    <t>F001-00035777</t>
+  </si>
+  <si>
+    <t>F001-00035778</t>
+  </si>
+  <si>
+    <t>F001-00035784</t>
+  </si>
+  <si>
     <t>estudiocontable_campos@hotmail.com</t>
   </si>
   <si>
+    <t>F001-00035793</t>
+  </si>
+  <si>
+    <t>F001-00035794</t>
+  </si>
+  <si>
     <t>YRMA</t>
   </si>
   <si>
+    <t>F001-00035819</t>
+  </si>
+  <si>
     <t>PONCE ROJAS JORDY JULER</t>
   </si>
   <si>
+    <t>F001-00035821</t>
+  </si>
+  <si>
     <t>KELLY</t>
   </si>
   <si>
+    <t>F001-00035826</t>
+  </si>
+  <si>
     <t>VERONICA</t>
   </si>
   <si>
+    <t>F001-00035833</t>
+  </si>
+  <si>
     <t>JEAN PIERRE ARELLANO</t>
   </si>
   <si>
+    <t>F001-00035839</t>
+  </si>
+  <si>
     <t>HILDA VILLAVICENCIO</t>
   </si>
   <si>
+    <t>F001-00035840</t>
+  </si>
+  <si>
+    <t>F001-00035850</t>
+  </si>
+  <si>
+    <t>F001-00035851</t>
+  </si>
+  <si>
     <t>SALON NOVOA ROSA JHERALIT</t>
   </si>
   <si>
-    <t>CARLOS PRADO</t>
-  </si>
-  <si>
-    <t>REPRESENTACIONES E &amp; N PALOMINO S.A.C.</t>
-  </si>
-  <si>
-    <t>SARAVIA OLIVER MARTHA ESTHER ANGELA MILAGROS</t>
-  </si>
-  <si>
-    <t>GRUPO BIOTECH S.A.C.</t>
-  </si>
-  <si>
-    <t>MUNAY &amp;FAM SOCIEDAD ANONIMA CERRADA</t>
-  </si>
-  <si>
-    <t>MEDICAL GROUP LRG E.I.R.L.</t>
-  </si>
-  <si>
-    <t>HOLDING E INVERSIONES CHYP E.I.R.L.</t>
-  </si>
-  <si>
-    <t>CORREA YAJAHUANCA OTILIO</t>
-  </si>
-  <si>
-    <t>MANUFACTURAS YANVAR S.A.C.</t>
-  </si>
-  <si>
-    <t>TRANSPORTES SANTO DOMINGO ICA SOCIEDAD ANONIMA CERRADA</t>
-  </si>
-  <si>
-    <t>ASOCIACION CULTURAL ARTES UNIDAS ACAU</t>
-  </si>
-  <si>
-    <t>ESPARTA CONSTRUCTORES S.A.</t>
-  </si>
-  <si>
-    <t>SOCIEDAD MINERA EL TRIUNFO S.A.</t>
-  </si>
-  <si>
-    <t>RONESK S.A.C.</t>
-  </si>
-  <si>
-    <t>SIMONS &amp; DE NORIEGA ABOGADOS SOCIEDAD CIVIL DE RESPONSABILIDAD LIMITADA-SIMONS &amp; DE NORIEGA S. CIVIL</t>
-  </si>
-  <si>
-    <t>GRUPO INMOBILIARIO PRO PERU S.A.C.</t>
-  </si>
-  <si>
-    <t>ALKHA &amp; CIA S.A.C.</t>
-  </si>
-  <si>
-    <t>ARIANA (EP)</t>
-  </si>
-  <si>
-    <t>F001-00035642</t>
-  </si>
-  <si>
-    <t>F001-00035717</t>
-  </si>
-  <si>
-    <t>F001-00035732</t>
-  </si>
-  <si>
-    <t>F001-00035737</t>
-  </si>
-  <si>
-    <t>F001-00035766</t>
-  </si>
-  <si>
-    <t>F001-00035772</t>
-  </si>
-  <si>
-    <t>F001-00035773</t>
-  </si>
-  <si>
-    <t>F001-00035774</t>
-  </si>
-  <si>
-    <t>F001-00035777</t>
-  </si>
-  <si>
-    <t>F001-00035778</t>
-  </si>
-  <si>
-    <t>F001-00035784</t>
-  </si>
-  <si>
-    <t>F001-00035793</t>
-  </si>
-  <si>
-    <t>F001-00035794</t>
-  </si>
-  <si>
-    <t>SIN PAGO</t>
-  </si>
-  <si>
-    <t>202507|202508|202509</t>
+    <t>F001-00035897</t>
+  </si>
+  <si>
+    <t>F001-00035861</t>
+  </si>
+  <si>
+    <t>F001-00035907</t>
   </si>
   <si>
     <t>SARAVIA OLIVER MARTHA ESTHER</t>
   </si>
   <si>
+    <t>F001-00035908</t>
+  </si>
+  <si>
+    <t>F001-00035917</t>
+  </si>
+  <si>
     <t>202503|202504|202505|202506</t>
   </si>
   <si>
+    <t>F001-00035870</t>
+  </si>
+  <si>
+    <t>F001-00035873</t>
+  </si>
+  <si>
+    <t>F001-00035874</t>
+  </si>
+  <si>
     <t>202508|202509|202510</t>
   </si>
   <si>
     <t>WILLIAM RUIZ</t>
   </si>
   <si>
+    <t>F001-00035875</t>
+  </si>
+  <si>
     <t>manufacturasyanvar@gmail.com</t>
   </si>
   <si>
-    <t>SANDRA BERNASCONI</t>
+    <t>F001-00035878</t>
+  </si>
+  <si>
+    <t>F001-00035880</t>
+  </si>
+  <si>
+    <t>F001-00035883</t>
+  </si>
+  <si>
+    <t>F001-00035892</t>
   </si>
   <si>
     <t>EDITH GUTIERREZ</t>
   </si>
   <si>
+    <t>F001-00035893</t>
+  </si>
+  <si>
+    <t>F001-00035896</t>
+  </si>
+  <si>
     <t>CONTRERAS ARIZAPANA ALEJANDRO ALLEN</t>
+  </si>
+  <si>
+    <t>F001-00035923</t>
+  </si>
+  <si>
+    <t>F001-00035927</t>
+  </si>
+  <si>
+    <t>F001-00035934</t>
+  </si>
+  <si>
+    <t>F001-00035935</t>
+  </si>
+  <si>
+    <t>201205|201211|201306|201307|201308|201309|201310|201311|201312|201401|201402|201403|201404|201405|201406|201407|201408|201409|201410|201411|201412|201</t>
+  </si>
+  <si>
+    <t>contabilidad@forestalesdaxsa.com.pe</t>
+  </si>
+  <si>
+    <t>F001-00035200</t>
+  </si>
+  <si>
+    <t>AHUMADA ENCALADA CINDY FABIOLA</t>
+  </si>
+  <si>
+    <t>F001-00035942</t>
+  </si>
+  <si>
+    <t>JULIA CARRILLO</t>
+  </si>
+  <si>
+    <t>F001-00035946</t>
+  </si>
+  <si>
+    <t>F001-00035950</t>
+  </si>
+  <si>
+    <t>SOFIA</t>
+  </si>
+  <si>
+    <t>F001-00035952</t>
+  </si>
+  <si>
+    <t>202506|202507|202508|202509|202510</t>
+  </si>
+  <si>
+    <t>F001-00035956</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>F001-00035959</t>
+  </si>
+  <si>
+    <t>MARCELA</t>
+  </si>
+  <si>
+    <t>F001-00035962</t>
+  </si>
+  <si>
+    <t>F001-00035967</t>
+  </si>
+  <si>
+    <t>DEL ALCÁZAR CABREJOS FIORELLA MARILYA</t>
+  </si>
+  <si>
+    <t>F001-00035979</t>
+  </si>
+  <si>
+    <t>202504|202505</t>
+  </si>
+  <si>
+    <t>RUBY</t>
+  </si>
+  <si>
+    <t>FLOR</t>
+  </si>
+  <si>
+    <t>GRECIA</t>
+  </si>
+  <si>
+    <t>202504|202505|202506|202507|202508</t>
+  </si>
+  <si>
+    <t>boost.medicina@gmail.com</t>
+  </si>
+  <si>
+    <t>RIOS DIAZ JENNIFER TATIANA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ GARCIA CARMEN ROSA</t>
+  </si>
+  <si>
+    <t>karen</t>
+  </si>
+  <si>
+    <t>202507|202508</t>
+  </si>
+  <si>
+    <t>jloaizap25@gmail.com</t>
+  </si>
+  <si>
+    <t>PARILLO GALINDO MARINA PILAR</t>
   </si>
 </sst>
 </file>
@@ -1092,10 +1350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620BD549-6BD9-4566-86B2-4950053DB95E}">
-  <dimension ref="A1:Q135"/>
+  <dimension ref="A1:Q136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1208,7 +1466,7 @@
         <v>56</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1240,11 +1498,11 @@
         <v>45993</v>
       </c>
       <c r="J3" s="7">
-        <f t="shared" ref="J3:J65" si="0">+L3/1.18</f>
+        <f t="shared" ref="J3:J66" si="0">+L3/1.18</f>
         <v>122.03389830508475</v>
       </c>
       <c r="K3" s="7">
-        <f t="shared" ref="K3:K65" si="1">J3*0.18</f>
+        <f t="shared" ref="K3:K66" si="1">J3*0.18</f>
         <v>21.966101694915253</v>
       </c>
       <c r="L3" s="8">
@@ -1314,7 +1572,7 @@
         <v>59</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>113</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1367,7 +1625,7 @@
         <v>60</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1418,7 +1676,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1469,7 +1727,7 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
-        <v>116</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1520,7 +1778,7 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1571,7 +1829,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1622,7 +1880,7 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1673,7 +1931,7 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1726,7 +1984,7 @@
         <v>61</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>121</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1779,7 +2037,7 @@
         <v>62</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1830,7 +2088,7 @@
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3" t="s">
-        <v>123</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1883,7 +2141,7 @@
         <v>63</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1934,7 +2192,7 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1987,7 +2245,7 @@
         <v>64</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>126</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2040,7 +2298,7 @@
         <v>65</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>127</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2093,7 +2351,7 @@
         <v>66</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2201,7 +2459,7 @@
         <v>67</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2252,7 +2510,7 @@
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2302,10 +2560,10 @@
       </c>
       <c r="O23" s="3"/>
       <c r="P23" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2356,7 +2614,7 @@
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2379,7 +2637,7 @@
         <v>20612463591</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H25" s="3">
         <v>20612463591</v>
@@ -2407,7 +2665,7 @@
       <c r="O25" s="3"/>
       <c r="P25" s="3"/>
       <c r="Q25" s="3" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2430,7 +2688,7 @@
         <v>20521886871</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H26" s="3">
         <v>20521886871</v>
@@ -2457,10 +2715,10 @@
       </c>
       <c r="O26" s="3"/>
       <c r="P26" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="3" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2483,7 +2741,7 @@
         <v>41977629</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H27" s="3">
         <v>10419776292</v>
@@ -2506,14 +2764,14 @@
         <v>19</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="O27" s="3"/>
       <c r="P27" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2536,7 +2794,7 @@
         <v>20606210176</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="H28" s="3">
         <v>20606210176</v>
@@ -2612,13 +2870,15 @@
         <v>18</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>138</v>
+        <v>186</v>
       </c>
       <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
+      <c r="Q29" s="3" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="30" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
@@ -2640,7 +2900,7 @@
         <v>40721603</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H30" s="3">
         <v>10407216038</v>
@@ -2668,7 +2928,7 @@
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3" t="s">
-        <v>139</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2691,7 +2951,7 @@
         <v>43371623</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H31" s="3">
         <v>10433716235</v>
@@ -2714,12 +2974,12 @@
         <v>19</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3" t="s">
-        <v>141</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2742,7 +3002,7 @@
         <v>20601897823</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H32" s="3">
         <v>20601897823</v>
@@ -2769,10 +3029,10 @@
       </c>
       <c r="O32" s="3"/>
       <c r="P32" s="3" t="s">
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2795,7 +3055,7 @@
         <v>20600140451</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H33" s="3">
         <v>20600140451</v>
@@ -2823,7 +3083,7 @@
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
       <c r="Q33" s="3" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2837,16 +3097,16 @@
         <v>53</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F34" s="3">
         <v>20170417543</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H34" s="3">
         <v>20170417543</v>
@@ -2874,7 +3134,7 @@
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
       <c r="Q34" s="3" t="s">
-        <v>145</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2897,7 +3157,7 @@
         <v>20302061425</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H35" s="3">
         <v>20302061425</v>
@@ -2925,7 +3185,7 @@
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
       <c r="Q35" s="3" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2948,7 +3208,7 @@
         <v>20604322678</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H36" s="3">
         <v>20604322678</v>
@@ -2975,10 +3235,10 @@
       </c>
       <c r="O36" s="3"/>
       <c r="P36" s="3" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="Q36" s="3" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3001,7 +3261,7 @@
         <v>20509470848</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H37" s="3">
         <v>20509470848</v>
@@ -3024,13 +3284,15 @@
         <v>18</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
+      <c r="Q37" s="3" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="38" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
@@ -3052,7 +3314,7 @@
         <v>20606399279</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H38" s="3">
         <v>20606399279</v>
@@ -3080,7 +3342,7 @@
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3103,7 +3365,7 @@
         <v>20298537461</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H39" s="3">
         <v>20298537461</v>
@@ -3130,10 +3392,10 @@
       </c>
       <c r="O39" s="3"/>
       <c r="P39" s="3" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3141,22 +3403,22 @@
         <v>76498557</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F40" s="3">
         <v>20514534251</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H40" s="3">
         <v>20514534251</v>
@@ -3184,7 +3446,7 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="41" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3207,7 +3469,7 @@
         <v>20511763089</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H41" s="3">
         <v>20511763089</v>
@@ -3234,10 +3496,10 @@
       </c>
       <c r="O41" s="3"/>
       <c r="P41" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q41" s="3" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="42" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3260,7 +3522,7 @@
         <v>20608123696</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H42" s="3">
         <v>20608123696</v>
@@ -3287,10 +3549,10 @@
       </c>
       <c r="O42" s="3"/>
       <c r="P42" s="3" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3313,7 +3575,7 @@
         <v>20603066112</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H43" s="3">
         <v>20603066112</v>
@@ -3340,10 +3602,10 @@
       </c>
       <c r="O43" s="3"/>
       <c r="P43" s="3" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="Q43" s="3" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3366,7 +3628,7 @@
         <v>20604312583</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H44" s="3">
         <v>20604312583</v>
@@ -3393,10 +3655,10 @@
       </c>
       <c r="O44" s="3"/>
       <c r="P44" s="3" t="s">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3419,7 +3681,7 @@
         <v>41673301</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H45" s="3">
         <v>10416733011</v>
@@ -3442,14 +3704,14 @@
         <v>19</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="O45" s="3"/>
       <c r="P45" s="3" t="s">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3472,7 +3734,7 @@
         <v>20551438113</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H46" s="3">
         <v>20551438113</v>
@@ -3495,14 +3757,14 @@
         <v>19</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="O46" s="3"/>
       <c r="P46" s="3" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
       <c r="Q46" s="3" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3525,7 +3787,7 @@
         <v>20601813832</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H47" s="3">
         <v>20601813832</v>
@@ -3553,7 +3815,7 @@
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
       <c r="Q47" s="3" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3576,7 +3838,7 @@
         <v>20556935280</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>20556935280</v>
@@ -3604,7 +3866,7 @@
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
     </row>
     <row r="49" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3627,7 +3889,7 @@
         <v>20602849636</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H49" s="3">
         <v>20602849636</v>
@@ -3650,14 +3912,14 @@
         <v>19</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="O49" s="3"/>
       <c r="P49" s="3" t="s">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3680,7 +3942,7 @@
         <v>20606753820</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H50" s="3">
         <v>20606753820</v>
@@ -3708,7 +3970,7 @@
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
       <c r="Q50" s="3" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3731,7 +3993,7 @@
         <v>20492994945</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H51" s="3">
         <v>20492994945</v>
@@ -3760,9 +4022,11 @@
         <v>202510</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q51" s="3"/>
+        <v>221</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="52" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
@@ -3784,7 +4048,7 @@
         <v>20606518235</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H52" s="3">
         <v>20606518235</v>
@@ -3811,9 +4075,11 @@
       </c>
       <c r="O52" s="3"/>
       <c r="P52" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q52" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="53" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
@@ -3835,7 +4101,7 @@
         <v>20610621351</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H53" s="3">
         <v>20610621351</v>
@@ -3858,13 +4124,15 @@
         <v>19</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="O53" s="3"/>
       <c r="P53" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q53" s="3"/>
+        <v>225</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="54" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
@@ -3886,7 +4154,7 @@
         <v>20606102187</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H54" s="3">
         <v>20606102187</v>
@@ -3913,9 +4181,11 @@
       </c>
       <c r="O54" s="3"/>
       <c r="P54" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q54" s="3"/>
+        <v>227</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="55" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
@@ -3937,7 +4207,7 @@
         <v>20551916970</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H55" s="3">
         <v>20551916970</v>
@@ -3964,9 +4234,11 @@
       </c>
       <c r="O55" s="3"/>
       <c r="P55" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q55" s="3"/>
+        <v>229</v>
+      </c>
+      <c r="Q55" s="3" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="56" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
@@ -3988,7 +4260,7 @@
         <v>20478157976</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H56" s="3">
         <v>20478157976</v>
@@ -4015,9 +4287,11 @@
       </c>
       <c r="O56" s="3"/>
       <c r="P56" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q56" s="3"/>
+        <v>231</v>
+      </c>
+      <c r="Q56" s="3" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="57" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
@@ -4039,7 +4313,7 @@
         <v>20542353059</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H57" s="3">
         <v>20542353059</v>
@@ -4066,7 +4340,9 @@
       </c>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
+      <c r="Q57" s="3" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="58" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
@@ -4088,7 +4364,7 @@
         <v>20552638337</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H58" s="3">
         <v>20552638337</v>
@@ -4111,11 +4387,13 @@
         <v>19</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
+      <c r="Q58" s="3" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="59" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
@@ -4137,7 +4415,7 @@
         <v>20614566842</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H59" s="3">
         <v>20614566842</v>
@@ -4164,9 +4442,11 @@
       </c>
       <c r="O59" s="3"/>
       <c r="P59" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q59" s="3"/>
+        <v>235</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="60" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
@@ -4188,7 +4468,7 @@
         <v>20113539675</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H60" s="3">
         <v>20113539675</v>
@@ -4214,70 +4494,68 @@
         <v>202510</v>
       </c>
       <c r="O60" s="3"/>
-      <c r="P60" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="61" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>76473871</v>
+        <v>76487874</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="F61" s="3">
-        <v>9941943</v>
+        <v>20137777305</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
       <c r="H61" s="3">
-        <v>10099419437</v>
+        <v>20137777305</v>
       </c>
       <c r="I61" s="4">
         <v>46013</v>
       </c>
       <c r="J61" s="7">
         <f t="shared" si="0"/>
-        <v>74.576271186440678</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K61" s="7">
         <f t="shared" si="1"/>
-        <v>13.423728813559322</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L61" s="8">
-        <v>88</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="O61" s="3">
-        <v>202510</v>
-      </c>
-      <c r="P61" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q61" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="N61" s="3">
+        <v>200805</v>
+      </c>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="62" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>76478856</v>
+        <v>76473871</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>53</v>
@@ -4289,41 +4567,45 @@
         <v>17</v>
       </c>
       <c r="F62" s="3">
-        <v>20611542721</v>
+        <v>9941943</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>169</v>
+        <v>114</v>
       </c>
       <c r="H62" s="3">
-        <v>20611542721</v>
+        <v>10099419437</v>
       </c>
       <c r="I62" s="4">
-        <v>46010</v>
+        <v>46013</v>
       </c>
       <c r="J62" s="7">
         <f t="shared" si="0"/>
-        <v>216.88135593220338</v>
+        <v>74.576271186440678</v>
       </c>
       <c r="K62" s="7">
         <f t="shared" si="1"/>
-        <v>39.038644067796604</v>
+        <v>13.423728813559322</v>
       </c>
       <c r="L62" s="8">
-        <v>255.92</v>
+        <v>88</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N62" s="3">
-        <v>202510</v>
+      <c r="N62" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
+      <c r="P62" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="63" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>76479209</v>
+        <v>76478856</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>48</v>
@@ -4338,44 +4620,46 @@
         <v>17</v>
       </c>
       <c r="F63" s="3">
-        <v>20613040146</v>
+        <v>20611542721</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="H63" s="3">
-        <v>20613040146</v>
+        <v>20611542721</v>
       </c>
       <c r="I63" s="4">
         <v>46010</v>
       </c>
       <c r="J63" s="7">
         <f t="shared" si="0"/>
-        <v>271.69491525423734</v>
+        <v>216.88135593220338</v>
       </c>
       <c r="K63" s="7">
         <f t="shared" si="1"/>
-        <v>48.905084745762721</v>
+        <v>39.038644067796604</v>
       </c>
       <c r="L63" s="8">
-        <v>320.60000000000002</v>
+        <v>255.92</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N63" s="3" t="s">
-        <v>200</v>
+      <c r="N63" s="3">
+        <v>202510</v>
       </c>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
+      <c r="Q63" s="3" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="64" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>76479156</v>
+        <v>76479209</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>53</v>
@@ -4387,44 +4671,46 @@
         <v>17</v>
       </c>
       <c r="F64" s="3">
-        <v>20612797243</v>
+        <v>20613040146</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>171</v>
+        <v>116</v>
       </c>
       <c r="H64" s="3">
-        <v>20612797243</v>
+        <v>20613040146</v>
       </c>
       <c r="I64" s="4">
         <v>46010</v>
       </c>
       <c r="J64" s="7">
         <f t="shared" si="0"/>
-        <v>86.381355932203405</v>
+        <v>271.69491525423734</v>
       </c>
       <c r="K64" s="7">
         <f t="shared" si="1"/>
-        <v>15.548644067796612</v>
+        <v>48.905084745762721</v>
       </c>
       <c r="L64" s="8">
-        <v>101.93</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="M64" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N64" s="3" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
+      <c r="Q64" s="3" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="65" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>76478745</v>
+        <v>76479156</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>53</v>
@@ -4436,43 +4722,43 @@
         <v>17</v>
       </c>
       <c r="F65" s="3">
-        <v>20611056584</v>
+        <v>20612797243</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="H65" s="3">
-        <v>20611056584</v>
+        <v>20612797243</v>
       </c>
       <c r="I65" s="4">
         <v>46010</v>
       </c>
       <c r="J65" s="7">
         <f t="shared" si="0"/>
-        <v>56.016949152542374</v>
+        <v>86.381355932203405</v>
       </c>
       <c r="K65" s="7">
         <f t="shared" si="1"/>
-        <v>10.083050847457628</v>
+        <v>15.548644067796612</v>
       </c>
       <c r="L65" s="8">
-        <v>66.099999999999994</v>
+        <v>101.93</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N65" s="3">
-        <v>202510</v>
+      <c r="N65" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="O65" s="3"/>
-      <c r="P65" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="66" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>76473820</v>
+        <v>76478745</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>15</v>
@@ -4487,46 +4773,48 @@
         <v>17</v>
       </c>
       <c r="F66" s="3">
-        <v>2867667</v>
+        <v>20611056584</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="H66" s="3">
-        <v>10028676676</v>
+        <v>20611056584</v>
       </c>
       <c r="I66" s="4">
         <v>46010</v>
       </c>
       <c r="J66" s="7">
-        <f t="shared" ref="J66:J129" si="2">+L66/1.18</f>
-        <v>62.711864406779661</v>
+        <f t="shared" si="0"/>
+        <v>56.016949152542374</v>
       </c>
       <c r="K66" s="7">
-        <f t="shared" ref="K66:K129" si="3">J66*0.18</f>
-        <v>11.288135593220339</v>
+        <f t="shared" si="1"/>
+        <v>10.083050847457628</v>
       </c>
       <c r="L66" s="8">
-        <v>74</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>201</v>
+      <c r="N66" s="3">
+        <v>202510</v>
       </c>
       <c r="O66" s="3"/>
       <c r="P66" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q66" s="3"/>
+        <v>214</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="67" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>76478099</v>
+        <v>76473820</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>53</v>
@@ -4538,159 +4826,167 @@
         <v>17</v>
       </c>
       <c r="F67" s="3">
-        <v>20608421671</v>
+        <v>2867667</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="H67" s="3">
-        <v>20608421671</v>
+        <v>10028676676</v>
       </c>
       <c r="I67" s="4">
         <v>46010</v>
       </c>
       <c r="J67" s="7">
+        <f t="shared" ref="J67:J130" si="2">+L67/1.18</f>
+        <v>62.711864406779661</v>
+      </c>
+      <c r="K67" s="7">
+        <f t="shared" ref="K67:K130" si="3">J67*0.18</f>
+        <v>11.288135593220339</v>
+      </c>
+      <c r="L67" s="8">
+        <v>74</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q67" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>76478099</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="3">
+        <v>20608421671</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H68" s="3">
+        <v>20608421671</v>
+      </c>
+      <c r="I68" s="4">
+        <v>46010</v>
+      </c>
+      <c r="J68" s="7">
         <f t="shared" si="2"/>
         <v>195.22881355932205</v>
       </c>
-      <c r="K67" s="7">
+      <c r="K68" s="7">
         <f t="shared" si="3"/>
         <v>35.14118644067797</v>
       </c>
-      <c r="L67" s="8">
+      <c r="L68" s="8">
         <v>230.37</v>
       </c>
-      <c r="M67" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N67" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+      <c r="M68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q68" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
         <v>76478834</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68" s="3">
+      <c r="C69" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="3">
         <v>20611458411</v>
       </c>
-      <c r="G68" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H68" s="3">
+      <c r="G69" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H69" s="3">
         <v>20611458411</v>
       </c>
-      <c r="I68" s="4">
+      <c r="I69" s="4">
         <v>46010</v>
       </c>
-      <c r="J68" s="7">
+      <c r="J69" s="7">
         <f t="shared" si="2"/>
         <v>78.033898305084747</v>
       </c>
-      <c r="K68" s="7">
+      <c r="K69" s="7">
         <f t="shared" si="3"/>
         <v>14.046101694915254</v>
       </c>
-      <c r="L68" s="8">
+      <c r="L69" s="8">
         <v>92.08</v>
       </c>
-      <c r="M68" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-    </row>
-    <row r="69" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
-        <v>76513510</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F69" s="3">
-        <v>20506112487</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H69" s="3">
-        <v>20506112487</v>
-      </c>
-      <c r="I69" s="4">
-        <v>46010</v>
-      </c>
-      <c r="J69" s="7">
-        <f t="shared" si="2"/>
-        <v>1074.3474576271187</v>
-      </c>
-      <c r="K69" s="7">
-        <f t="shared" si="3"/>
-        <v>193.38254237288137</v>
-      </c>
-      <c r="L69" s="8">
-        <v>1267.73</v>
-      </c>
       <c r="M69" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="N69" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="O69" s="3"/>
-      <c r="P69" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="70" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>76501464</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F70" s="3">
         <v>20551106897</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>177</v>
+        <v>122</v>
       </c>
       <c r="H70" s="3">
         <v>20551106897</v>
@@ -4717,7 +5013,9 @@
       </c>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
+      <c r="Q70" s="3" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="71" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
@@ -4739,7 +5037,7 @@
         <v>20612770621</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>178</v>
+        <v>123</v>
       </c>
       <c r="H71" s="3">
         <v>20612770621</v>
@@ -4762,11 +5060,13 @@
         <v>19</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
+      <c r="Q71" s="3" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="72" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
@@ -4788,7 +5088,7 @@
         <v>20475236131</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>179</v>
+        <v>124</v>
       </c>
       <c r="H72" s="3">
         <v>20475236131</v>
@@ -4815,9 +5115,11 @@
       </c>
       <c r="O72" s="3"/>
       <c r="P72" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q72" s="3"/>
+        <v>254</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="73" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
@@ -4839,7 +5141,7 @@
         <v>20544097700</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="H73" s="3">
         <v>20544097700</v>
@@ -4866,7 +5168,9 @@
       </c>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
+      <c r="Q73" s="3" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="74" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
@@ -4888,7 +5192,7 @@
         <v>20608549332</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="H74" s="3">
         <v>20608549332</v>
@@ -4915,9 +5219,11 @@
       </c>
       <c r="O74" s="3"/>
       <c r="P74" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q74" s="3"/>
+        <v>257</v>
+      </c>
+      <c r="Q74" s="3" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="75" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
@@ -4939,7 +5245,7 @@
         <v>20604020329</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
       <c r="H75" s="3">
         <v>20604020329</v>
@@ -4966,731 +5272,1493 @@
       </c>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
+      <c r="Q75" s="3" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="76" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="4"/>
+      <c r="A76" s="3">
+        <v>76476153</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="3">
+        <v>20600634071</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="H76" s="3">
+        <v>20600634071</v>
+      </c>
+      <c r="I76" s="4">
+        <v>46013</v>
+      </c>
       <c r="J76" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>120.81355932203391</v>
       </c>
       <c r="K76" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L76" s="8"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
+        <v>21.746440677966103</v>
+      </c>
+      <c r="L76" s="8">
+        <v>142.56</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N76" s="3">
+        <v>202510</v>
+      </c>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
+      <c r="Q76" s="3" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="77" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="4"/>
+      <c r="A77" s="3">
+        <v>76478073</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="3">
+        <v>20608307410</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H77" s="3">
+        <v>20608307410</v>
+      </c>
+      <c r="I77" s="4">
+        <v>46013</v>
+      </c>
       <c r="J77" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>68.330508474576277</v>
       </c>
       <c r="K77" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L77" s="8"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
+        <v>12.299491525423729</v>
+      </c>
+      <c r="L77" s="8">
+        <v>80.63</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N77" s="3">
+        <v>202509</v>
+      </c>
+      <c r="O77" s="3">
+        <v>202510</v>
+      </c>
       <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
+      <c r="Q77" s="3" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="78" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="4"/>
+      <c r="A78" s="3">
+        <v>76512803</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F78" s="3">
+        <v>20477349243</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H78" s="3">
+        <v>20477349243</v>
+      </c>
+      <c r="I78" s="4">
+        <v>46010</v>
+      </c>
       <c r="J78" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1193.8728813559323</v>
       </c>
       <c r="K78" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L78" s="8"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
+        <v>214.8971186440678</v>
+      </c>
+      <c r="L78" s="8">
+        <v>1408.77</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>262</v>
+      </c>
       <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
+      <c r="P78" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q78" s="3" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="79" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="4"/>
+      <c r="A79" s="3">
+        <v>76475906</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="3">
+        <v>20565549805</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="H79" s="3">
+        <v>20565549805</v>
+      </c>
+      <c r="I79" s="4">
+        <v>46013</v>
+      </c>
       <c r="J79" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>61.016949152542374</v>
       </c>
       <c r="K79" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L79" s="8"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
+        <v>10.983050847457626</v>
+      </c>
+      <c r="L79" s="8">
+        <v>72</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N79" s="3">
+        <v>202510</v>
+      </c>
       <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
+      <c r="P79" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q79" s="3" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="80" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="4"/>
+      <c r="A80" s="3">
+        <v>76474914</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="3">
+        <v>20513555475</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H80" s="3">
+        <v>20513555475</v>
+      </c>
+      <c r="I80" s="4">
+        <v>46013</v>
+      </c>
       <c r="J80" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>62.711864406779661</v>
       </c>
       <c r="K80" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L80" s="8"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
+        <v>11.288135593220339</v>
+      </c>
+      <c r="L80" s="8">
+        <v>74</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
+      <c r="P80" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q80" s="3" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="81" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="4"/>
+      <c r="A81" s="3">
+        <v>76475500</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="3">
+        <v>20546935320</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H81" s="3">
+        <v>20546935320</v>
+      </c>
+      <c r="I81" s="4">
+        <v>46013</v>
+      </c>
       <c r="J81" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>58.567796610169495</v>
       </c>
       <c r="K81" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L81" s="8"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="3"/>
+        <v>10.542203389830508</v>
+      </c>
+      <c r="L81" s="8">
+        <v>69.11</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>246</v>
+      </c>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
-      <c r="Q81" s="3"/>
+      <c r="Q81" s="3" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="82" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="4"/>
+      <c r="A82" s="3">
+        <v>76475600</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="3">
+        <v>20551300600</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H82" s="3">
+        <v>20551300600</v>
+      </c>
+      <c r="I82" s="4">
+        <v>46013</v>
+      </c>
       <c r="J82" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>70.788135593220346</v>
       </c>
       <c r="K82" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L82" s="8"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="3"/>
+        <v>12.741864406779662</v>
+      </c>
+      <c r="L82" s="8">
+        <v>83.53</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N82" s="3">
+        <v>202510</v>
+      </c>
       <c r="O82" s="3"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3"/>
+      <c r="P82" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q82" s="3" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="83" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="4"/>
+      <c r="A83" s="3">
+        <v>76473963</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="3">
+        <v>28820579</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H83" s="3">
+        <v>10288205791</v>
+      </c>
+      <c r="I83" s="4">
+        <v>46013</v>
+      </c>
       <c r="J83" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>129.66101694915255</v>
       </c>
       <c r="K83" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L83" s="8"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
+        <v>23.33898305084746</v>
+      </c>
+      <c r="L83" s="8">
+        <v>153</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>272</v>
+      </c>
       <c r="O83" s="3"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3"/>
+      <c r="P83" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="84" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-      <c r="I84" s="4"/>
+      <c r="A84" s="3">
+        <v>76474021</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F84" s="3">
+        <v>42034235</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H84" s="3">
+        <v>10420342352</v>
+      </c>
+      <c r="I84" s="4">
+        <v>46013</v>
+      </c>
       <c r="J84" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>58.279661016949149</v>
       </c>
       <c r="K84" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L84" s="8"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
+        <v>10.490338983050846</v>
+      </c>
+      <c r="L84" s="8">
+        <v>68.77</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N84" s="3">
+        <v>202510</v>
+      </c>
       <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
+      <c r="P84" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q84" s="3" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="85" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-      <c r="I85" s="4"/>
+      <c r="A85" s="3">
+        <v>76475252</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="3">
+        <v>20535020249</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H85" s="3">
+        <v>20535020249</v>
+      </c>
+      <c r="I85" s="4">
+        <v>46010</v>
+      </c>
       <c r="J85" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>344.91525423728814</v>
       </c>
       <c r="K85" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L85" s="8"/>
-      <c r="M85" s="3"/>
-      <c r="N85" s="3"/>
+        <v>62.084745762711862</v>
+      </c>
+      <c r="L85" s="8">
+        <v>407</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N85" s="3">
+        <v>202510</v>
+      </c>
       <c r="O85" s="3"/>
-      <c r="P85" s="3"/>
-      <c r="Q85" s="3"/>
+      <c r="P85" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q85" s="3" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="86" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3"/>
-      <c r="I86" s="4"/>
+      <c r="A86" s="3">
+        <v>76476886</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" s="3">
+        <v>20603030592</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H86" s="3">
+        <v>20603030592</v>
+      </c>
+      <c r="I86" s="4">
+        <v>46013</v>
+      </c>
       <c r="J86" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>106.53389830508475</v>
       </c>
       <c r="K86" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L86" s="8"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="3"/>
+        <v>19.176101694915253</v>
+      </c>
+      <c r="L86" s="8">
+        <v>125.71</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N86" s="3">
+        <v>202510</v>
+      </c>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
-      <c r="Q86" s="3"/>
+      <c r="Q86" s="3" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="87" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="4"/>
+      <c r="A87" s="3">
+        <v>76477724</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87" s="3">
+        <v>20606561891</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H87" s="3">
+        <v>20606561891</v>
+      </c>
+      <c r="I87" s="4">
+        <v>46014</v>
+      </c>
       <c r="J87" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>56.779661016949156</v>
       </c>
       <c r="K87" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L87" s="8"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="3"/>
+        <v>10.220338983050848</v>
+      </c>
+      <c r="L87" s="8">
+        <v>67</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N87" s="3">
+        <v>202510</v>
+      </c>
       <c r="O87" s="3"/>
-      <c r="P87" s="3"/>
-      <c r="Q87" s="3"/>
+      <c r="P87" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q87" s="3" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="88" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="4"/>
+      <c r="A88" s="3">
+        <v>76487371</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F88" s="3">
+        <v>5292332</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H88" s="3">
+        <v>10052923323</v>
+      </c>
+      <c r="I88" s="4">
+        <v>46014</v>
+      </c>
       <c r="J88" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K88" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L88" s="8"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L88" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>281</v>
+      </c>
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
       <c r="Q88" s="3"/>
     </row>
     <row r="89" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3"/>
-      <c r="I89" s="4"/>
+      <c r="A89" s="3">
+        <v>76475236</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" s="3">
+        <v>20533805061</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H89" s="3">
+        <v>20533805061</v>
+      </c>
+      <c r="I89" s="4">
+        <v>46015</v>
+      </c>
       <c r="J89" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K89" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L89" s="8"/>
-      <c r="M89" s="3"/>
-      <c r="N89" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L89" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
       <c r="Q89" s="3"/>
     </row>
     <row r="90" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-      <c r="I90" s="4"/>
+      <c r="A90" s="3">
+        <v>76476639</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" s="3">
+        <v>20602174353</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H90" s="3">
+        <v>20602174353</v>
+      </c>
+      <c r="I90" s="4">
+        <v>46017</v>
+      </c>
       <c r="J90" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>62.711864406779661</v>
       </c>
       <c r="K90" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L90" s="8"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="3"/>
+        <v>11.288135593220339</v>
+      </c>
+      <c r="L90" s="8">
+        <v>74</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="O90" s="3"/>
-      <c r="P90" s="3"/>
+      <c r="P90" s="3" t="s">
+        <v>282</v>
+      </c>
       <c r="Q90" s="3"/>
     </row>
     <row r="91" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="4"/>
+      <c r="A91" s="3">
+        <v>76479451</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="3">
+        <v>20614103320</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H91" s="3">
+        <v>20614103320</v>
+      </c>
+      <c r="I91" s="4">
+        <v>46017</v>
+      </c>
       <c r="J91" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>229.31355932203388</v>
       </c>
       <c r="K91" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L91" s="8"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
+        <v>41.2764406779661</v>
+      </c>
+      <c r="L91" s="8">
+        <v>270.58999999999997</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="O91" s="3"/>
-      <c r="P91" s="3"/>
+      <c r="P91" s="3" t="s">
+        <v>283</v>
+      </c>
       <c r="Q91" s="3"/>
     </row>
     <row r="92" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-      <c r="I92" s="4"/>
+      <c r="A92" s="3">
+        <v>76475844</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="3">
+        <v>20560145358</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H92" s="3">
+        <v>20560145358</v>
+      </c>
+      <c r="I92" s="4">
+        <v>46017</v>
+      </c>
       <c r="J92" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>80.508474576271198</v>
       </c>
       <c r="K92" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L92" s="8"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="3"/>
+        <v>14.491525423728815</v>
+      </c>
+      <c r="L92" s="8">
+        <v>95</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N92" s="3">
+        <v>202510</v>
+      </c>
       <c r="O92" s="3"/>
-      <c r="P92" s="3"/>
+      <c r="P92" s="3" t="s">
+        <v>284</v>
+      </c>
       <c r="Q92" s="3"/>
     </row>
     <row r="93" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3"/>
-      <c r="I93" s="4"/>
+      <c r="A93" s="3">
+        <v>76479247</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93" s="3">
+        <v>20613161032</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H93" s="3">
+        <v>20613161032</v>
+      </c>
+      <c r="I93" s="4">
+        <v>46017</v>
+      </c>
       <c r="J93" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>146.60169491525426</v>
       </c>
       <c r="K93" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L93" s="8"/>
-      <c r="M93" s="3"/>
-      <c r="N93" s="3"/>
+        <v>26.388305084745767</v>
+      </c>
+      <c r="L93" s="8">
+        <v>172.99</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>285</v>
+      </c>
       <c r="O93" s="3"/>
-      <c r="P93" s="3"/>
+      <c r="P93" s="3" t="s">
+        <v>286</v>
+      </c>
       <c r="Q93" s="3"/>
     </row>
     <row r="94" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="4"/>
+      <c r="A94" s="3">
+        <v>76477192</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" s="3">
+        <v>20604267197</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H94" s="3">
+        <v>20604267197</v>
+      </c>
+      <c r="I94" s="4">
+        <v>46017</v>
+      </c>
       <c r="J94" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K94" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L94" s="8"/>
-      <c r="M94" s="3"/>
-      <c r="N94" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L94" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N94" s="3">
+        <v>202510</v>
+      </c>
       <c r="O94" s="3"/>
       <c r="P94" s="3"/>
       <c r="Q94" s="3"/>
     </row>
     <row r="95" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="4"/>
+      <c r="A95" s="3">
+        <v>76474342</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" s="3">
+        <v>20397739709</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H95" s="3">
+        <v>20397739709</v>
+      </c>
+      <c r="I95" s="4">
+        <v>46010</v>
+      </c>
       <c r="J95" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K95" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L95" s="8"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L95" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N95" s="3">
+        <v>202510</v>
+      </c>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
     </row>
     <row r="96" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3"/>
-      <c r="I96" s="4"/>
+      <c r="A96" s="3">
+        <v>76476314</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" s="3">
+        <v>20601219302</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H96" s="3">
+        <v>20601219302</v>
+      </c>
+      <c r="I96" s="4">
+        <v>46017</v>
+      </c>
       <c r="J96" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>385.59322033898309</v>
       </c>
       <c r="K96" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L96" s="8"/>
-      <c r="M96" s="3"/>
-      <c r="N96" s="3"/>
-      <c r="O96" s="3"/>
-      <c r="P96" s="3"/>
+        <v>69.406779661016955</v>
+      </c>
+      <c r="L96" s="8">
+        <v>455</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O96" s="3">
+        <v>202510</v>
+      </c>
+      <c r="P96" s="3" t="s">
+        <v>287</v>
+      </c>
       <c r="Q96" s="3"/>
     </row>
     <row r="97" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="4"/>
+      <c r="A97" s="3">
+        <v>76474139</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="3">
+        <v>70342138</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H97" s="3">
+        <v>10703421381</v>
+      </c>
+      <c r="I97" s="4">
+        <v>46017</v>
+      </c>
       <c r="J97" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K97" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L97" s="8"/>
-      <c r="M97" s="3"/>
-      <c r="N97" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L97" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="O97" s="3"/>
-      <c r="P97" s="3"/>
+      <c r="P97" s="3" t="s">
+        <v>288</v>
+      </c>
       <c r="Q97" s="3"/>
     </row>
     <row r="98" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3"/>
-      <c r="I98" s="4"/>
+      <c r="A98" s="3">
+        <v>76479339</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="3">
+        <v>20613518186</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H98" s="3">
+        <v>20613518186</v>
+      </c>
+      <c r="I98" s="4">
+        <v>46020</v>
+      </c>
       <c r="J98" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K98" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L98" s="8"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L98" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N98" s="3">
+        <v>202510</v>
+      </c>
       <c r="O98" s="3"/>
-      <c r="P98" s="3"/>
+      <c r="P98" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="Q98" s="3"/>
     </row>
     <row r="99" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3"/>
-      <c r="I99" s="4"/>
+      <c r="A99" s="3">
+        <v>76503948</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F99" s="3">
+        <v>20601471664</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H99" s="3">
+        <v>20601471664</v>
+      </c>
+      <c r="I99" s="4">
+        <v>46017</v>
+      </c>
       <c r="J99" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60.254237288135592</v>
       </c>
       <c r="K99" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L99" s="8"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="3"/>
+        <v>10.845762711864406</v>
+      </c>
+      <c r="L99" s="8">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N99" s="3">
+        <v>202510</v>
+      </c>
       <c r="O99" s="3"/>
       <c r="P99" s="3"/>
       <c r="Q99" s="3"/>
     </row>
     <row r="100" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="4"/>
+      <c r="A100" s="3">
+        <v>76476766</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" s="3">
+        <v>20602619517</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H100" s="3">
+        <v>20602619517</v>
+      </c>
+      <c r="I100" s="4">
+        <v>46019</v>
+      </c>
       <c r="J100" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K100" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L100" s="8"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
-      <c r="O100" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L100" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>189</v>
+      </c>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
     </row>
     <row r="101" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="4"/>
+      <c r="A101" s="3">
+        <v>76495923</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F101" s="3">
+        <v>20455191557</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H101" s="3">
+        <v>20455191557</v>
+      </c>
+      <c r="I101" s="4">
+        <v>46017</v>
+      </c>
       <c r="J101" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K101" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L101" s="8"/>
-      <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L101" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N101" s="3">
+        <v>202510</v>
+      </c>
       <c r="O101" s="3"/>
-      <c r="P101" s="3"/>
+      <c r="P101" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="Q101" s="3"/>
     </row>
     <row r="102" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3"/>
-      <c r="I102" s="4"/>
+      <c r="A102" s="3">
+        <v>76477617</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102" s="3">
+        <v>20606177632</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H102" s="3">
+        <v>20606177632</v>
+      </c>
+      <c r="I102" s="4">
+        <v>46015</v>
+      </c>
       <c r="J102" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K102" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L102" s="8"/>
-      <c r="M102" s="3"/>
-      <c r="N102" s="3"/>
+        <v>10.083050847457628</v>
+      </c>
+      <c r="L102" s="8">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N102" s="3">
+        <v>202510</v>
+      </c>
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
     </row>
     <row r="103" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3"/>
-      <c r="I103" s="4"/>
+      <c r="A103" s="3">
+        <v>76476778</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F103" s="3">
+        <v>20602669620</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H103" s="3">
+        <v>20602669620</v>
+      </c>
+      <c r="I103" s="4">
+        <v>46014</v>
+      </c>
       <c r="J103" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>207.38135593220341</v>
       </c>
       <c r="K103" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L103" s="8"/>
-      <c r="M103" s="3"/>
-      <c r="N103" s="3"/>
+        <v>37.32864406779661</v>
+      </c>
+      <c r="L103" s="8">
+        <v>244.71</v>
+      </c>
+      <c r="M103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N103" s="3">
+        <v>202510</v>
+      </c>
       <c r="O103" s="3"/>
       <c r="P103" s="3"/>
       <c r="Q103" s="3"/>
     </row>
     <row r="104" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="4"/>
+      <c r="A104" s="3">
+        <v>76478102</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" s="3">
+        <v>20608440403</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H104" s="3">
+        <v>20608440403</v>
+      </c>
+      <c r="I104" s="4">
+        <v>46009</v>
+      </c>
       <c r="J104" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>55.932203389830512</v>
       </c>
       <c r="K104" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L104" s="8"/>
-      <c r="M104" s="3"/>
-      <c r="N104" s="3"/>
+        <v>10.067796610169491</v>
+      </c>
+      <c r="L104" s="8">
+        <v>66</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N104" s="3">
+        <v>202510</v>
+      </c>
       <c r="O104" s="3"/>
-      <c r="P104" s="3"/>
+      <c r="P104" s="3" t="s">
+        <v>292</v>
+      </c>
       <c r="Q104" s="3"/>
     </row>
     <row r="105" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -6329,11 +7397,11 @@
       <c r="H130" s="3"/>
       <c r="I130" s="4"/>
       <c r="J130" s="7">
-        <f t="shared" ref="J130:J134" si="4">+L130/1.18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K130" s="7">
-        <f t="shared" ref="K130:K134" si="5">J130*0.18</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L130" s="8"/>
@@ -6354,11 +7422,11 @@
       <c r="H131" s="3"/>
       <c r="I131" s="4"/>
       <c r="J131" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J131:J135" si="4">+L131/1.18</f>
         <v>0</v>
       </c>
       <c r="K131" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="K131:K135" si="5">J131*0.18</f>
         <v>0</v>
       </c>
       <c r="L131" s="8"/>
@@ -6444,17 +7512,42 @@
       <c r="Q134" s="3"/>
     </row>
     <row r="135" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="J135" s="11">
-        <f>SUBTOTAL(9,J2:J134)</f>
-        <v>9784.3135593220377</v>
-      </c>
-      <c r="K135" s="11">
-        <f>SUBTOTAL(9,K2:K134)</f>
-        <v>1761.1764406779655</v>
-      </c>
-      <c r="L135" s="11">
-        <f>SUM(L2:L134)</f>
-        <v>11545.49</v>
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K135" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L135" s="8"/>
+      <c r="M135" s="3"/>
+      <c r="N135" s="3"/>
+      <c r="O135" s="3"/>
+      <c r="P135" s="3"/>
+      <c r="Q135" s="3"/>
+    </row>
+    <row r="136" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J136" s="11">
+        <f>SUBTOTAL(9,J2:J135)</f>
+        <v>12830.703389830518</v>
+      </c>
+      <c r="K136" s="11">
+        <f>SUBTOTAL(9,K2:K135)</f>
+        <v>2309.5266101694933</v>
+      </c>
+      <c r="L136" s="11">
+        <f>SUM(L2:L135)</f>
+        <v>15140.230000000003</v>
       </c>
     </row>
   </sheetData>

--- a/CIERRE GASTOS ADMINISTRATIVOS DICIEMBRE 2025.xlsx
+++ b/CIERRE GASTOS ADMINISTRATIVOS DICIEMBRE 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\PAGOS DICIEMBRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7151E0A1-90A2-47DD-91E2-15C5C8965C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AE8591-9992-4EF7-AC04-E2EF14328EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D111AC9-F4B5-4EE1-9519-BE4E4E92E24D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="296">
   <si>
     <t>ID_OBLIGACION</t>
   </si>
@@ -919,6 +919,15 @@
   </si>
   <si>
     <t>PARILLO GALINDO MARINA PILAR</t>
+  </si>
+  <si>
+    <t>ASOCIACION CULTURAL ARTES UNIDAS ACAU</t>
+  </si>
+  <si>
+    <t>SIN PAGO</t>
+  </si>
+  <si>
+    <t>F001-00035882</t>
   </si>
 </sst>
 </file>
@@ -1352,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620BD549-6BD9-4566-86B2-4950053DB95E}">
   <dimension ref="A1:Q136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:Q105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4968,112 +4977,110 @@
     </row>
     <row r="70" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>76501464</v>
+        <v>76513510</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="F70" s="3">
-        <v>20551106897</v>
+        <v>20506112487</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>122</v>
+        <v>293</v>
       </c>
       <c r="H70" s="3">
-        <v>20551106897</v>
+        <v>20506112487</v>
       </c>
       <c r="I70" s="4">
         <v>46010</v>
       </c>
       <c r="J70" s="7">
         <f t="shared" si="2"/>
-        <v>235.18644067796609</v>
+        <v>1074.3474576271187</v>
       </c>
       <c r="K70" s="7">
         <f t="shared" si="3"/>
-        <v>42.333559322033892</v>
+        <v>193.38254237288137</v>
       </c>
       <c r="L70" s="8">
-        <v>277.52</v>
+        <v>1267.73</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N70" s="3">
-        <v>202510</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N70" s="3"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
       <c r="Q70" s="3" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>76479150</v>
+        <v>76501464</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="F71" s="3">
-        <v>20612770621</v>
+        <v>20551106897</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H71" s="3">
-        <v>20612770621</v>
+        <v>20551106897</v>
       </c>
       <c r="I71" s="4">
-        <v>46003</v>
+        <v>46010</v>
       </c>
       <c r="J71" s="7">
         <f t="shared" si="2"/>
-        <v>147.77966101694915</v>
+        <v>235.18644067796609</v>
       </c>
       <c r="K71" s="7">
         <f t="shared" si="3"/>
-        <v>26.600338983050847</v>
+        <v>42.333559322033892</v>
       </c>
       <c r="L71" s="8">
-        <v>174.38</v>
+        <v>277.52</v>
       </c>
       <c r="M71" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N71" s="3" t="s">
-        <v>189</v>
+      <c r="N71" s="3">
+        <v>202510</v>
       </c>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
       <c r="Q71" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>76474511</v>
+        <v>76479150</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>53</v>
@@ -5085,48 +5092,46 @@
         <v>17</v>
       </c>
       <c r="F72" s="3">
-        <v>20475236131</v>
+        <v>20612770621</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H72" s="3">
-        <v>20475236131</v>
+        <v>20612770621</v>
       </c>
       <c r="I72" s="4">
-        <v>46010</v>
+        <v>46003</v>
       </c>
       <c r="J72" s="7">
         <f t="shared" si="2"/>
-        <v>86.440677966101703</v>
+        <v>147.77966101694915</v>
       </c>
       <c r="K72" s="7">
         <f t="shared" si="3"/>
-        <v>15.559322033898306</v>
+        <v>26.600338983050847</v>
       </c>
       <c r="L72" s="8">
-        <v>102</v>
+        <v>174.38</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N72" s="3">
-        <v>202505</v>
+      <c r="N72" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="O72" s="3"/>
-      <c r="P72" s="3" t="s">
-        <v>254</v>
-      </c>
+      <c r="P72" s="3"/>
       <c r="Q72" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>76475422</v>
+        <v>76474511</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>53</v>
@@ -5138,46 +5143,48 @@
         <v>17</v>
       </c>
       <c r="F73" s="3">
-        <v>20544097700</v>
+        <v>20475236131</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H73" s="3">
-        <v>20544097700</v>
+        <v>20475236131</v>
       </c>
       <c r="I73" s="4">
         <v>46010</v>
       </c>
       <c r="J73" s="7">
         <f t="shared" si="2"/>
-        <v>60.016949152542374</v>
+        <v>86.440677966101703</v>
       </c>
       <c r="K73" s="7">
         <f t="shared" si="3"/>
-        <v>10.803050847457627</v>
+        <v>15.559322033898306</v>
       </c>
       <c r="L73" s="8">
-        <v>70.819999999999993</v>
+        <v>102</v>
       </c>
       <c r="M73" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N73" s="3">
-        <v>202510</v>
+        <v>202505</v>
       </c>
       <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
+      <c r="P73" s="3" t="s">
+        <v>254</v>
+      </c>
       <c r="Q73" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="74" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>76478142</v>
+        <v>76475422</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>53</v>
@@ -5189,27 +5196,27 @@
         <v>17</v>
       </c>
       <c r="F74" s="3">
-        <v>20608549332</v>
+        <v>20544097700</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H74" s="3">
-        <v>20608549332</v>
+        <v>20544097700</v>
       </c>
       <c r="I74" s="4">
-        <v>46011</v>
+        <v>46010</v>
       </c>
       <c r="J74" s="7">
         <f t="shared" si="2"/>
-        <v>184.85593220338984</v>
+        <v>60.016949152542374</v>
       </c>
       <c r="K74" s="7">
         <f t="shared" si="3"/>
-        <v>33.274067796610169</v>
+        <v>10.803050847457627</v>
       </c>
       <c r="L74" s="8">
-        <v>218.13</v>
+        <v>70.819999999999993</v>
       </c>
       <c r="M74" s="3" t="s">
         <v>19</v>
@@ -5218,19 +5225,17 @@
         <v>202510</v>
       </c>
       <c r="O74" s="3"/>
-      <c r="P74" s="3" t="s">
-        <v>257</v>
-      </c>
+      <c r="P74" s="3"/>
       <c r="Q74" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>76477146</v>
+        <v>76478142</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>53</v>
@@ -5242,27 +5247,27 @@
         <v>17</v>
       </c>
       <c r="F75" s="3">
-        <v>20604020329</v>
+        <v>20608549332</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H75" s="3">
-        <v>20604020329</v>
+        <v>20608549332</v>
       </c>
       <c r="I75" s="4">
-        <v>46013</v>
+        <v>46011</v>
       </c>
       <c r="J75" s="7">
         <f t="shared" si="2"/>
-        <v>399.5169491525424</v>
+        <v>184.85593220338984</v>
       </c>
       <c r="K75" s="7">
         <f t="shared" si="3"/>
-        <v>71.913050847457626</v>
+        <v>33.274067796610169</v>
       </c>
       <c r="L75" s="8">
-        <v>471.43</v>
+        <v>218.13</v>
       </c>
       <c r="M75" s="3" t="s">
         <v>19</v>
@@ -5271,14 +5276,16 @@
         <v>202510</v>
       </c>
       <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
+      <c r="P75" s="3" t="s">
+        <v>257</v>
+      </c>
       <c r="Q75" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>76476153</v>
+        <v>76477146</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>20</v>
@@ -5293,27 +5300,27 @@
         <v>17</v>
       </c>
       <c r="F76" s="3">
-        <v>20600634071</v>
+        <v>20604020329</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H76" s="3">
-        <v>20600634071</v>
+        <v>20604020329</v>
       </c>
       <c r="I76" s="4">
         <v>46013</v>
       </c>
       <c r="J76" s="7">
         <f t="shared" si="2"/>
-        <v>120.81355932203391</v>
+        <v>399.5169491525424</v>
       </c>
       <c r="K76" s="7">
         <f t="shared" si="3"/>
-        <v>21.746440677966103</v>
+        <v>71.913050847457626</v>
       </c>
       <c r="L76" s="8">
-        <v>142.56</v>
+        <v>471.43</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>19</v>
@@ -5324,12 +5331,12 @@
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
       <c r="Q76" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>76478073</v>
+        <v>76476153</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>20</v>
@@ -5344,151 +5351,149 @@
         <v>17</v>
       </c>
       <c r="F77" s="3">
-        <v>20608307410</v>
+        <v>20600634071</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H77" s="3">
-        <v>20608307410</v>
+        <v>20600634071</v>
       </c>
       <c r="I77" s="4">
         <v>46013</v>
       </c>
       <c r="J77" s="7">
         <f t="shared" si="2"/>
-        <v>68.330508474576277</v>
+        <v>120.81355932203391</v>
       </c>
       <c r="K77" s="7">
         <f t="shared" si="3"/>
-        <v>12.299491525423729</v>
+        <v>21.746440677966103</v>
       </c>
       <c r="L77" s="8">
-        <v>80.63</v>
+        <v>142.56</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N77" s="3">
-        <v>202509</v>
-      </c>
-      <c r="O77" s="3">
         <v>202510</v>
       </c>
+      <c r="O77" s="3"/>
       <c r="P77" s="3"/>
       <c r="Q77" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>76512803</v>
+        <v>76478073</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F78" s="3">
-        <v>20477349243</v>
+        <v>20608307410</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H78" s="3">
-        <v>20477349243</v>
+        <v>20608307410</v>
       </c>
       <c r="I78" s="4">
-        <v>46010</v>
+        <v>46013</v>
       </c>
       <c r="J78" s="7">
         <f t="shared" si="2"/>
-        <v>1193.8728813559323</v>
+        <v>68.330508474576277</v>
       </c>
       <c r="K78" s="7">
         <f t="shared" si="3"/>
-        <v>214.8971186440678</v>
+        <v>12.299491525423729</v>
       </c>
       <c r="L78" s="8">
-        <v>1408.77</v>
+        <v>80.63</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N78" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3" t="s">
-        <v>263</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="N78" s="3">
+        <v>202509</v>
+      </c>
+      <c r="O78" s="3">
+        <v>202510</v>
+      </c>
+      <c r="P78" s="3"/>
       <c r="Q78" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>76475906</v>
+        <v>76512803</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F79" s="3">
-        <v>20565549805</v>
+        <v>20477349243</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H79" s="3">
-        <v>20565549805</v>
+        <v>20477349243</v>
       </c>
       <c r="I79" s="4">
-        <v>46013</v>
+        <v>46010</v>
       </c>
       <c r="J79" s="7">
         <f t="shared" si="2"/>
-        <v>61.016949152542374</v>
+        <v>1193.8728813559323</v>
       </c>
       <c r="K79" s="7">
         <f t="shared" si="3"/>
-        <v>10.983050847457626</v>
+        <v>214.8971186440678</v>
       </c>
       <c r="L79" s="8">
-        <v>72</v>
+        <v>1408.77</v>
       </c>
       <c r="M79" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N79" s="3">
-        <v>202510</v>
+      <c r="N79" s="3" t="s">
+        <v>262</v>
       </c>
       <c r="O79" s="3"/>
       <c r="P79" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q79" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>76474914</v>
+        <v>76475906</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>15</v>
@@ -5503,48 +5508,48 @@
         <v>17</v>
       </c>
       <c r="F80" s="3">
-        <v>20513555475</v>
+        <v>20565549805</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H80" s="3">
-        <v>20513555475</v>
+        <v>20565549805</v>
       </c>
       <c r="I80" s="4">
         <v>46013</v>
       </c>
       <c r="J80" s="7">
         <f t="shared" si="2"/>
-        <v>62.711864406779661</v>
+        <v>61.016949152542374</v>
       </c>
       <c r="K80" s="7">
         <f t="shared" si="3"/>
-        <v>11.288135593220339</v>
+        <v>10.983050847457626</v>
       </c>
       <c r="L80" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M80" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N80" s="3" t="s">
-        <v>189</v>
+      <c r="N80" s="3">
+        <v>202510</v>
       </c>
       <c r="O80" s="3"/>
       <c r="P80" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q80" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>76475500</v>
+        <v>76474914</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>53</v>
@@ -5556,46 +5561,48 @@
         <v>17</v>
       </c>
       <c r="F81" s="3">
-        <v>20546935320</v>
+        <v>20513555475</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H81" s="3">
-        <v>20546935320</v>
+        <v>20513555475</v>
       </c>
       <c r="I81" s="4">
         <v>46013</v>
       </c>
       <c r="J81" s="7">
         <f t="shared" si="2"/>
-        <v>58.567796610169495</v>
+        <v>62.711864406779661</v>
       </c>
       <c r="K81" s="7">
         <f t="shared" si="3"/>
-        <v>10.542203389830508</v>
+        <v>11.288135593220339</v>
       </c>
       <c r="L81" s="8">
-        <v>69.11</v>
+        <v>74</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N81" s="3" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="O81" s="3"/>
-      <c r="P81" s="3"/>
+      <c r="P81" s="3" t="s">
+        <v>267</v>
+      </c>
       <c r="Q81" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="82" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>76475600</v>
+        <v>76475500</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>53</v>
@@ -5607,45 +5614,43 @@
         <v>17</v>
       </c>
       <c r="F82" s="3">
-        <v>20551300600</v>
+        <v>20546935320</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H82" s="3">
-        <v>20551300600</v>
+        <v>20546935320</v>
       </c>
       <c r="I82" s="4">
         <v>46013</v>
       </c>
       <c r="J82" s="7">
         <f t="shared" si="2"/>
-        <v>70.788135593220346</v>
+        <v>58.567796610169495</v>
       </c>
       <c r="K82" s="7">
         <f t="shared" si="3"/>
-        <v>12.741864406779662</v>
+        <v>10.542203389830508</v>
       </c>
       <c r="L82" s="8">
-        <v>83.53</v>
+        <v>69.11</v>
       </c>
       <c r="M82" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N82" s="3">
-        <v>202510</v>
+      <c r="N82" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="O82" s="3"/>
-      <c r="P82" s="3" t="s">
-        <v>270</v>
-      </c>
+      <c r="P82" s="3"/>
       <c r="Q82" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>76473963</v>
+        <v>76475600</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>15</v>
@@ -5660,45 +5665,45 @@
         <v>17</v>
       </c>
       <c r="F83" s="3">
-        <v>28820579</v>
+        <v>20551300600</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H83" s="3">
-        <v>10288205791</v>
+        <v>20551300600</v>
       </c>
       <c r="I83" s="4">
         <v>46013</v>
       </c>
       <c r="J83" s="7">
         <f t="shared" si="2"/>
-        <v>129.66101694915255</v>
+        <v>70.788135593220346</v>
       </c>
       <c r="K83" s="7">
         <f t="shared" si="3"/>
-        <v>23.33898305084746</v>
+        <v>12.741864406779662</v>
       </c>
       <c r="L83" s="8">
-        <v>153</v>
+        <v>83.53</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>272</v>
+      <c r="N83" s="3">
+        <v>202510</v>
       </c>
       <c r="O83" s="3"/>
       <c r="P83" s="3" t="s">
-        <v>135</v>
+        <v>270</v>
       </c>
       <c r="Q83" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>76474021</v>
+        <v>76473963</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>15</v>
@@ -5713,45 +5718,45 @@
         <v>17</v>
       </c>
       <c r="F84" s="3">
-        <v>42034235</v>
+        <v>28820579</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H84" s="3">
-        <v>10420342352</v>
+        <v>10288205791</v>
       </c>
       <c r="I84" s="4">
         <v>46013</v>
       </c>
       <c r="J84" s="7">
         <f t="shared" si="2"/>
-        <v>58.279661016949149</v>
+        <v>129.66101694915255</v>
       </c>
       <c r="K84" s="7">
         <f t="shared" si="3"/>
-        <v>10.490338983050846</v>
+        <v>23.33898305084746</v>
       </c>
       <c r="L84" s="8">
-        <v>68.77</v>
+        <v>153</v>
       </c>
       <c r="M84" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N84" s="3">
-        <v>202510</v>
+      <c r="N84" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="O84" s="3"/>
       <c r="P84" s="3" t="s">
-        <v>274</v>
+        <v>135</v>
       </c>
       <c r="Q84" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="85" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>76475252</v>
+        <v>76474021</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>15</v>
@@ -5766,27 +5771,27 @@
         <v>17</v>
       </c>
       <c r="F85" s="3">
-        <v>20535020249</v>
+        <v>42034235</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H85" s="3">
-        <v>20535020249</v>
+        <v>10420342352</v>
       </c>
       <c r="I85" s="4">
-        <v>46010</v>
+        <v>46013</v>
       </c>
       <c r="J85" s="7">
         <f t="shared" si="2"/>
-        <v>344.91525423728814</v>
+        <v>58.279661016949149</v>
       </c>
       <c r="K85" s="7">
         <f t="shared" si="3"/>
-        <v>62.084745762711862</v>
+        <v>10.490338983050846</v>
       </c>
       <c r="L85" s="8">
-        <v>407</v>
+        <v>68.77</v>
       </c>
       <c r="M85" s="3" t="s">
         <v>19</v>
@@ -5796,18 +5801,18 @@
       </c>
       <c r="O85" s="3"/>
       <c r="P85" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q85" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>76476886</v>
+        <v>76475252</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>53</v>
@@ -5819,27 +5824,27 @@
         <v>17</v>
       </c>
       <c r="F86" s="3">
-        <v>20603030592</v>
+        <v>20535020249</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H86" s="3">
-        <v>20603030592</v>
+        <v>20535020249</v>
       </c>
       <c r="I86" s="4">
-        <v>46013</v>
+        <v>46010</v>
       </c>
       <c r="J86" s="7">
         <f t="shared" si="2"/>
-        <v>106.53389830508475</v>
+        <v>344.91525423728814</v>
       </c>
       <c r="K86" s="7">
         <f t="shared" si="3"/>
-        <v>19.176101694915253</v>
+        <v>62.084745762711862</v>
       </c>
       <c r="L86" s="8">
-        <v>125.71</v>
+        <v>407</v>
       </c>
       <c r="M86" s="3" t="s">
         <v>19</v>
@@ -5848,17 +5853,19 @@
         <v>202510</v>
       </c>
       <c r="O86" s="3"/>
-      <c r="P86" s="3"/>
+      <c r="P86" s="3" t="s">
+        <v>276</v>
+      </c>
       <c r="Q86" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="87" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>76477724</v>
+        <v>76476886</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>53</v>
@@ -5870,27 +5877,27 @@
         <v>17</v>
       </c>
       <c r="F87" s="3">
-        <v>20606561891</v>
+        <v>20603030592</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H87" s="3">
-        <v>20606561891</v>
+        <v>20603030592</v>
       </c>
       <c r="I87" s="4">
-        <v>46014</v>
+        <v>46013</v>
       </c>
       <c r="J87" s="7">
         <f t="shared" si="2"/>
-        <v>56.779661016949156</v>
+        <v>106.53389830508475</v>
       </c>
       <c r="K87" s="7">
         <f t="shared" si="3"/>
-        <v>10.220338983050848</v>
+        <v>19.176101694915253</v>
       </c>
       <c r="L87" s="8">
-        <v>67</v>
+        <v>125.71</v>
       </c>
       <c r="M87" s="3" t="s">
         <v>19</v>
@@ -5899,89 +5906,91 @@
         <v>202510</v>
       </c>
       <c r="O87" s="3"/>
-      <c r="P87" s="3" t="s">
-        <v>279</v>
-      </c>
+      <c r="P87" s="3"/>
       <c r="Q87" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>76487371</v>
+        <v>76477724</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="F88" s="3">
-        <v>5292332</v>
+        <v>20606561891</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H88" s="3">
-        <v>10052923323</v>
+        <v>20606561891</v>
       </c>
       <c r="I88" s="4">
         <v>46014</v>
       </c>
       <c r="J88" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>56.779661016949156</v>
       </c>
       <c r="K88" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>10.220338983050848</v>
       </c>
       <c r="L88" s="8">
-        <v>66.099999999999994</v>
+        <v>67</v>
       </c>
       <c r="M88" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N88" s="3" t="s">
-        <v>281</v>
+      <c r="N88" s="3">
+        <v>202510</v>
       </c>
       <c r="O88" s="3"/>
-      <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
+      <c r="P88" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q88" s="3" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="89" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>76475236</v>
+        <v>76487371</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>16</v>
+        <v>81</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="F89" s="3">
-        <v>20533805061</v>
+        <v>5292332</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H89" s="3">
-        <v>20533805061</v>
+        <v>10052923323</v>
       </c>
       <c r="I89" s="4">
-        <v>46015</v>
+        <v>46014</v>
       </c>
       <c r="J89" s="7">
         <f t="shared" si="2"/>
@@ -5998,7 +6007,7 @@
         <v>19</v>
       </c>
       <c r="N89" s="3" t="s">
-        <v>189</v>
+        <v>281</v>
       </c>
       <c r="O89" s="3"/>
       <c r="P89" s="3"/>
@@ -6006,10 +6015,10 @@
     </row>
     <row r="90" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>76476639</v>
+        <v>76475236</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>53</v>
@@ -6021,27 +6030,27 @@
         <v>17</v>
       </c>
       <c r="F90" s="3">
-        <v>20602174353</v>
+        <v>20533805061</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H90" s="3">
-        <v>20602174353</v>
+        <v>20533805061</v>
       </c>
       <c r="I90" s="4">
-        <v>46017</v>
+        <v>46015</v>
       </c>
       <c r="J90" s="7">
         <f t="shared" si="2"/>
-        <v>62.711864406779661</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K90" s="7">
         <f t="shared" si="3"/>
-        <v>11.288135593220339</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L90" s="8">
-        <v>74</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M90" s="3" t="s">
         <v>19</v>
@@ -6050,17 +6059,15 @@
         <v>189</v>
       </c>
       <c r="O90" s="3"/>
-      <c r="P90" s="3" t="s">
-        <v>282</v>
-      </c>
+      <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
     </row>
     <row r="91" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>76479451</v>
+        <v>76476639</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>53</v>
@@ -6072,27 +6079,27 @@
         <v>17</v>
       </c>
       <c r="F91" s="3">
-        <v>20614103320</v>
+        <v>20602174353</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H91" s="3">
-        <v>20614103320</v>
+        <v>20602174353</v>
       </c>
       <c r="I91" s="4">
         <v>46017</v>
       </c>
       <c r="J91" s="7">
         <f t="shared" si="2"/>
-        <v>229.31355932203388</v>
+        <v>62.711864406779661</v>
       </c>
       <c r="K91" s="7">
         <f t="shared" si="3"/>
-        <v>41.2764406779661</v>
+        <v>11.288135593220339</v>
       </c>
       <c r="L91" s="8">
-        <v>270.58999999999997</v>
+        <v>74</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>19</v>
@@ -6102,16 +6109,16 @@
       </c>
       <c r="O91" s="3"/>
       <c r="P91" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="Q91" s="3"/>
     </row>
     <row r="92" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>76475844</v>
+        <v>76479451</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>53</v>
@@ -6123,46 +6130,46 @@
         <v>17</v>
       </c>
       <c r="F92" s="3">
-        <v>20560145358</v>
+        <v>20614103320</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H92" s="3">
-        <v>20560145358</v>
+        <v>20614103320</v>
       </c>
       <c r="I92" s="4">
         <v>46017</v>
       </c>
       <c r="J92" s="7">
         <f t="shared" si="2"/>
-        <v>80.508474576271198</v>
+        <v>229.31355932203388</v>
       </c>
       <c r="K92" s="7">
         <f t="shared" si="3"/>
-        <v>14.491525423728815</v>
+        <v>41.2764406779661</v>
       </c>
       <c r="L92" s="8">
-        <v>95</v>
+        <v>270.58999999999997</v>
       </c>
       <c r="M92" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N92" s="3">
-        <v>202510</v>
+      <c r="N92" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="O92" s="3"/>
       <c r="P92" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q92" s="3"/>
     </row>
     <row r="93" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>76479247</v>
+        <v>76475844</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>53</v>
@@ -6174,43 +6181,43 @@
         <v>17</v>
       </c>
       <c r="F93" s="3">
-        <v>20613161032</v>
+        <v>20560145358</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H93" s="3">
-        <v>20613161032</v>
+        <v>20560145358</v>
       </c>
       <c r="I93" s="4">
         <v>46017</v>
       </c>
       <c r="J93" s="7">
         <f t="shared" si="2"/>
-        <v>146.60169491525426</v>
+        <v>80.508474576271198</v>
       </c>
       <c r="K93" s="7">
         <f t="shared" si="3"/>
-        <v>26.388305084745767</v>
+        <v>14.491525423728815</v>
       </c>
       <c r="L93" s="8">
-        <v>172.99</v>
+        <v>95</v>
       </c>
       <c r="M93" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N93" s="3" t="s">
-        <v>285</v>
+      <c r="N93" s="3">
+        <v>202510</v>
       </c>
       <c r="O93" s="3"/>
       <c r="P93" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q93" s="3"/>
     </row>
     <row r="94" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>76477192</v>
+        <v>76479247</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>48</v>
@@ -6225,44 +6232,46 @@
         <v>17</v>
       </c>
       <c r="F94" s="3">
-        <v>20604267197</v>
+        <v>20613161032</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H94" s="3">
-        <v>20604267197</v>
+        <v>20613161032</v>
       </c>
       <c r="I94" s="4">
         <v>46017</v>
       </c>
       <c r="J94" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>146.60169491525426</v>
       </c>
       <c r="K94" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>26.388305084745767</v>
       </c>
       <c r="L94" s="8">
-        <v>66.099999999999994</v>
+        <v>172.99</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N94" s="3">
-        <v>202510</v>
+      <c r="N94" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="O94" s="3"/>
-      <c r="P94" s="3"/>
+      <c r="P94" s="3" t="s">
+        <v>286</v>
+      </c>
       <c r="Q94" s="3"/>
     </row>
     <row r="95" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>76474342</v>
+        <v>76477192</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>53</v>
@@ -6274,16 +6283,16 @@
         <v>17</v>
       </c>
       <c r="F95" s="3">
-        <v>20397739709</v>
+        <v>20604267197</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H95" s="3">
-        <v>20397739709</v>
+        <v>20604267197</v>
       </c>
       <c r="I95" s="4">
-        <v>46010</v>
+        <v>46017</v>
       </c>
       <c r="J95" s="7">
         <f t="shared" si="2"/>
@@ -6308,10 +6317,10 @@
     </row>
     <row r="96" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>76476314</v>
+        <v>76474342</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>53</v>
@@ -6323,45 +6332,41 @@
         <v>17</v>
       </c>
       <c r="F96" s="3">
-        <v>20601219302</v>
+        <v>20397739709</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H96" s="3">
-        <v>20601219302</v>
+        <v>20397739709</v>
       </c>
       <c r="I96" s="4">
-        <v>46017</v>
+        <v>46010</v>
       </c>
       <c r="J96" s="7">
         <f t="shared" si="2"/>
-        <v>385.59322033898309</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K96" s="7">
         <f t="shared" si="3"/>
-        <v>69.406779661016955</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L96" s="8">
-        <v>455</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N96" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O96" s="3">
+        <v>19</v>
+      </c>
+      <c r="N96" s="3">
         <v>202510</v>
       </c>
-      <c r="P96" s="3" t="s">
-        <v>287</v>
-      </c>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
       <c r="Q96" s="3"/>
     </row>
     <row r="97" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>76474139</v>
+        <v>76476314</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>15</v>
@@ -6376,46 +6381,48 @@
         <v>17</v>
       </c>
       <c r="F97" s="3">
-        <v>70342138</v>
+        <v>20601219302</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H97" s="3">
-        <v>10703421381</v>
+        <v>20601219302</v>
       </c>
       <c r="I97" s="4">
         <v>46017</v>
       </c>
       <c r="J97" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>385.59322033898309</v>
       </c>
       <c r="K97" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>69.406779661016955</v>
       </c>
       <c r="L97" s="8">
-        <v>66.099999999999994</v>
+        <v>455</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N97" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="O97" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="O97" s="3">
+        <v>202510</v>
+      </c>
       <c r="P97" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Q97" s="3"/>
     </row>
     <row r="98" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>76479339</v>
+        <v>76474139</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>53</v>
@@ -6427,16 +6434,16 @@
         <v>17</v>
       </c>
       <c r="F98" s="3">
-        <v>20613518186</v>
+        <v>70342138</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H98" s="3">
-        <v>20613518186</v>
+        <v>10703421381</v>
       </c>
       <c r="I98" s="4">
-        <v>46020</v>
+        <v>46017</v>
       </c>
       <c r="J98" s="7">
         <f t="shared" si="2"/>
@@ -6452,53 +6459,53 @@
       <c r="M98" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N98" s="3">
-        <v>202510</v>
+      <c r="N98" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="O98" s="3"/>
       <c r="P98" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="Q98" s="3"/>
     </row>
     <row r="99" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>76503948</v>
+        <v>76479339</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="F99" s="3">
-        <v>20601471664</v>
+        <v>20613518186</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H99" s="3">
-        <v>20601471664</v>
+        <v>20613518186</v>
       </c>
       <c r="I99" s="4">
-        <v>46017</v>
+        <v>46020</v>
       </c>
       <c r="J99" s="7">
         <f t="shared" si="2"/>
-        <v>60.254237288135592</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K99" s="7">
         <f t="shared" si="3"/>
-        <v>10.845762711864406</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L99" s="8">
-        <v>71.099999999999994</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M99" s="3" t="s">
         <v>19</v>
@@ -6507,87 +6514,87 @@
         <v>202510</v>
       </c>
       <c r="O99" s="3"/>
-      <c r="P99" s="3"/>
+      <c r="P99" s="3" t="s">
+        <v>289</v>
+      </c>
       <c r="Q99" s="3"/>
     </row>
     <row r="100" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>76476766</v>
+        <v>76503948</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="F100" s="3">
-        <v>20602619517</v>
+        <v>20601471664</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H100" s="3">
-        <v>20602619517</v>
+        <v>20601471664</v>
       </c>
       <c r="I100" s="4">
-        <v>46019</v>
+        <v>46017</v>
       </c>
       <c r="J100" s="7">
         <f t="shared" si="2"/>
-        <v>56.016949152542374</v>
+        <v>60.254237288135592</v>
       </c>
       <c r="K100" s="7">
         <f t="shared" si="3"/>
-        <v>10.083050847457628</v>
+        <v>10.845762711864406</v>
       </c>
       <c r="L100" s="8">
-        <v>66.099999999999994</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>189</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="N100" s="3">
+        <v>202510</v>
+      </c>
+      <c r="O100" s="3"/>
       <c r="P100" s="3"/>
       <c r="Q100" s="3"/>
     </row>
     <row r="101" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>76495923</v>
+        <v>76476766</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="F101" s="3">
-        <v>20455191557</v>
+        <v>20602619517</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H101" s="3">
-        <v>20455191557</v>
+        <v>20602619517</v>
       </c>
       <c r="I101" s="4">
-        <v>46017</v>
+        <v>46019</v>
       </c>
       <c r="J101" s="7">
         <f t="shared" si="2"/>
@@ -6601,44 +6608,44 @@
         <v>66.099999999999994</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N101" s="3">
-        <v>202510</v>
-      </c>
-      <c r="O101" s="3"/>
-      <c r="P101" s="3" t="s">
-        <v>291</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P101" s="3"/>
       <c r="Q101" s="3"/>
     </row>
     <row r="102" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>76477617</v>
+        <v>76495923</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="F102" s="3">
-        <v>20606177632</v>
+        <v>20455191557</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H102" s="3">
-        <v>20606177632</v>
+        <v>20455191557</v>
       </c>
       <c r="I102" s="4">
-        <v>46015</v>
+        <v>46017</v>
       </c>
       <c r="J102" s="7">
         <f t="shared" si="2"/>
@@ -6658,15 +6665,17 @@
         <v>202510</v>
       </c>
       <c r="O102" s="3"/>
-      <c r="P102" s="3"/>
+      <c r="P102" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="Q102" s="3"/>
     </row>
     <row r="103" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>76476778</v>
+        <v>76477617</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>53</v>
@@ -6678,27 +6687,27 @@
         <v>17</v>
       </c>
       <c r="F103" s="3">
-        <v>20602669620</v>
+        <v>20606177632</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H103" s="3">
-        <v>20602669620</v>
+        <v>20606177632</v>
       </c>
       <c r="I103" s="4">
-        <v>46014</v>
+        <v>46015</v>
       </c>
       <c r="J103" s="7">
         <f t="shared" si="2"/>
-        <v>207.38135593220341</v>
+        <v>56.016949152542374</v>
       </c>
       <c r="K103" s="7">
         <f t="shared" si="3"/>
-        <v>37.32864406779661</v>
+        <v>10.083050847457628</v>
       </c>
       <c r="L103" s="8">
-        <v>244.71</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="M103" s="3" t="s">
         <v>19</v>
@@ -6712,10 +6721,10 @@
     </row>
     <row r="104" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>76478102</v>
+        <v>76476778</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>53</v>
@@ -6727,27 +6736,27 @@
         <v>17</v>
       </c>
       <c r="F104" s="3">
-        <v>20608440403</v>
+        <v>20602669620</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H104" s="3">
-        <v>20608440403</v>
+        <v>20602669620</v>
       </c>
       <c r="I104" s="4">
-        <v>46009</v>
+        <v>46014</v>
       </c>
       <c r="J104" s="7">
         <f t="shared" si="2"/>
-        <v>55.932203389830512</v>
+        <v>207.38135593220341</v>
       </c>
       <c r="K104" s="7">
         <f t="shared" si="3"/>
-        <v>10.067796610169491</v>
+        <v>37.32864406779661</v>
       </c>
       <c r="L104" s="8">
-        <v>66</v>
+        <v>244.71</v>
       </c>
       <c r="M104" s="3" t="s">
         <v>19</v>
@@ -6756,34 +6765,58 @@
         <v>202510</v>
       </c>
       <c r="O104" s="3"/>
-      <c r="P104" s="3" t="s">
-        <v>292</v>
-      </c>
+      <c r="P104" s="3"/>
       <c r="Q104" s="3"/>
     </row>
     <row r="105" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-      <c r="I105" s="4"/>
+      <c r="A105" s="3">
+        <v>76478102</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="3">
+        <v>20608440403</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H105" s="3">
+        <v>20608440403</v>
+      </c>
+      <c r="I105" s="4">
+        <v>46009</v>
+      </c>
       <c r="J105" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>55.932203389830512</v>
       </c>
       <c r="K105" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L105" s="8"/>
-      <c r="M105" s="3"/>
-      <c r="N105" s="3"/>
+        <v>10.067796610169491</v>
+      </c>
+      <c r="L105" s="8">
+        <v>66</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N105" s="3">
+        <v>202510</v>
+      </c>
       <c r="O105" s="3"/>
-      <c r="P105" s="3"/>
+      <c r="P105" s="3" t="s">
+        <v>292</v>
+      </c>
       <c r="Q105" s="3"/>
     </row>
     <row r="106" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -7539,18 +7572,19 @@
     <row r="136" spans="1:17" s="5" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J136" s="11">
         <f>SUBTOTAL(9,J2:J135)</f>
-        <v>12830.703389830518</v>
+        <v>13905.05084745764</v>
       </c>
       <c r="K136" s="11">
         <f>SUBTOTAL(9,K2:K135)</f>
-        <v>2309.5266101694933</v>
+        <v>2502.9091525423751</v>
       </c>
       <c r="L136" s="11">
         <f>SUM(L2:L135)</f>
-        <v>15140.230000000003</v>
+        <v>16407.960000000003</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q135" xr:uid="{620BD549-6BD9-4566-86B2-4950053DB95E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/CIERRE GASTOS ADMINISTRATIVOS DICIEMBRE 2025.xlsx
+++ b/CIERRE GASTOS ADMINISTRATIVOS DICIEMBRE 2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\PAGOS DICIEMBRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AE8591-9992-4EF7-AC04-E2EF14328EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B17ABB9-B401-4F8E-A964-2409CDBC799E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6D111AC9-F4B5-4EE1-9519-BE4E4E92E24D}"/>
   </bookViews>
@@ -1362,7 +1362,7 @@
   <dimension ref="A1:Q136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:Q105"/>
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
